--- a/data_indexpoints_tidy/tallmateriale_960.xlsx
+++ b/data_indexpoints_tidy/tallmateriale_960.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programmering\R\byindeks\data_indexpoints_tidy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83166B6-C68D-437A-86AE-22253F53B19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A861DB-D9AF-4441-A209-EF43D27C2B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="38610" windowHeight="20985" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="520">
   <si>
     <t>trp_id</t>
   </si>
@@ -1085,9 +1085,6 @@
     <t>2024-2025</t>
   </si>
   <si>
-    <t>jan-nov</t>
-  </si>
-  <si>
     <t>2019-2021</t>
   </si>
   <si>
@@ -1103,6 +1100,9 @@
     <t>2019-2024</t>
   </si>
   <si>
+    <t>2019-2025</t>
+  </si>
+  <si>
     <t>standard_deviation</t>
   </si>
   <si>
@@ -1115,10 +1115,7 @@
     <t>year_to_date</t>
   </si>
   <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>2019-2025</t>
+    <t>Desember</t>
   </si>
   <si>
     <t>n_eff</t>
@@ -1322,6 +1319,9 @@
     <t>2019 - (des 2024 - nov 2025)</t>
   </si>
   <si>
+    <t>2019 - (jan 2025 - des 2025)</t>
+  </si>
+  <si>
     <t>2019 - (jan 2020 - des 2021)</t>
   </si>
   <si>
@@ -1469,6 +1469,9 @@
     <t>2019 - (des 2023 - nov 2025)</t>
   </si>
   <si>
+    <t>2019 - (jan 2024 - des 2025)</t>
+  </si>
+  <si>
     <t>2019 - (jan 2020 - des 2022)</t>
   </si>
   <si>
@@ -1578,6 +1581,9 @@
   </si>
   <si>
     <t>2019 - (des 2022 - nov 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (jan 2023 - des 2025)</t>
   </si>
 </sst>
 </file>
@@ -2076,7 +2082,7 @@
         <v>38</v>
       </c>
       <c r="R2">
-        <v>26680</v>
+        <v>27010</v>
       </c>
       <c r="S2">
         <v>2025</v>
@@ -2109,7 +2115,7 @@
         <v>0.63279032205008079</v>
       </c>
       <c r="AC2">
-        <v>1.0013013402993209</v>
+        <v>1.156292824755067</v>
       </c>
       <c r="AD2" t="s">
         <v>41</v>
@@ -2162,10 +2168,10 @@
         <v>47</v>
       </c>
       <c r="R3">
-        <v>44180</v>
+        <v>44340</v>
       </c>
       <c r="S3">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="T3">
         <v>44260</v>
@@ -2195,7 +2201,7 @@
         <v>-7.06</v>
       </c>
       <c r="AC3">
-        <v>0.09</v>
+        <v>0.43</v>
       </c>
       <c r="AD3" t="s">
         <v>41</v>
@@ -2248,10 +2254,10 @@
         <v>47</v>
       </c>
       <c r="R4">
-        <v>40900</v>
+        <v>40730</v>
       </c>
       <c r="S4">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="T4">
         <v>39000</v>
@@ -2313,10 +2319,10 @@
         <v>36</v>
       </c>
       <c r="M5">
-        <v>63.430976999999999</v>
+        <v>63.430976000000001</v>
       </c>
       <c r="N5">
-        <v>10.494071999999999</v>
+        <v>10.494077000000001</v>
       </c>
       <c r="O5" t="s">
         <v>57</v>
@@ -2325,10 +2331,10 @@
         <v>47</v>
       </c>
       <c r="R5">
-        <v>5280</v>
+        <v>4930</v>
       </c>
       <c r="S5">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="T5">
         <v>4920</v>
@@ -2358,7 +2364,7 @@
         <v>-5.65</v>
       </c>
       <c r="AC5">
-        <v>-6.67</v>
+        <v>-6.53</v>
       </c>
       <c r="AD5" t="s">
         <v>41</v>
@@ -2417,10 +2423,10 @@
         <v>47</v>
       </c>
       <c r="R6">
-        <v>5760</v>
+        <v>5370</v>
       </c>
       <c r="S6">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="T6">
         <v>5190</v>
@@ -2450,7 +2456,7 @@
         <v>-2.64</v>
       </c>
       <c r="AC6">
-        <v>-6.69</v>
+        <v>-6.72</v>
       </c>
       <c r="AD6" t="s">
         <v>41</v>
@@ -2503,10 +2509,10 @@
         <v>47</v>
       </c>
       <c r="R7">
-        <v>22000</v>
+        <v>23680</v>
       </c>
       <c r="S7">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="T7">
         <v>20480</v>
@@ -2536,7 +2542,7 @@
         <v>3.85</v>
       </c>
       <c r="AC7">
-        <v>7.49</v>
+        <v>7.66</v>
       </c>
       <c r="AD7" t="s">
         <v>41</v>
@@ -2586,7 +2592,7 @@
         <v>70</v>
       </c>
       <c r="R8">
-        <v>17240</v>
+        <v>17260</v>
       </c>
       <c r="S8">
         <v>2025</v>
@@ -2619,7 +2625,7 @@
         <v>-3.3351840522256371</v>
       </c>
       <c r="AC8">
-        <v>0.41859962450720989</v>
+        <v>0.16591159247651979</v>
       </c>
       <c r="AD8" t="s">
         <v>41</v>
@@ -2672,10 +2678,10 @@
         <v>47</v>
       </c>
       <c r="R9">
-        <v>2350</v>
+        <v>2370</v>
       </c>
       <c r="S9">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="T9">
         <v>2200</v>
@@ -2702,7 +2708,7 @@
         <v>4.66</v>
       </c>
       <c r="AC9">
-        <v>0.81</v>
+        <v>0.71</v>
       </c>
       <c r="AD9" t="s">
         <v>41</v>
@@ -2755,10 +2761,10 @@
         <v>47</v>
       </c>
       <c r="R10">
-        <v>13230</v>
+        <v>13500</v>
       </c>
       <c r="S10">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="T10">
         <v>12500</v>
@@ -2788,7 +2794,7 @@
         <v>1.05</v>
       </c>
       <c r="AC10">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="AD10" t="s">
         <v>41</v>
@@ -2838,7 +2844,7 @@
         <v>91</v>
       </c>
       <c r="R11">
-        <v>9590</v>
+        <v>9830</v>
       </c>
       <c r="S11">
         <v>2025</v>
@@ -2915,10 +2921,10 @@
         <v>47</v>
       </c>
       <c r="R12">
-        <v>12550</v>
+        <v>14700</v>
       </c>
       <c r="S12">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="T12">
         <v>11940</v>
@@ -2939,7 +2945,7 @@
         <v>-18.12</v>
       </c>
       <c r="AC12">
-        <v>16.079999999999998</v>
+        <v>15.84</v>
       </c>
       <c r="AD12" t="s">
         <v>92</v>
@@ -3069,10 +3075,10 @@
         <v>47</v>
       </c>
       <c r="R14">
-        <v>6100</v>
+        <v>6430</v>
       </c>
       <c r="S14">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="T14">
         <v>6260</v>
@@ -3099,7 +3105,7 @@
         <v>48.9</v>
       </c>
       <c r="AC14">
-        <v>5.57</v>
+        <v>5.37</v>
       </c>
       <c r="AD14" t="s">
         <v>92</v>
@@ -3152,10 +3158,10 @@
         <v>47</v>
       </c>
       <c r="R15">
-        <v>15100</v>
+        <v>14850</v>
       </c>
       <c r="S15">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="T15">
         <v>15390</v>
@@ -3182,7 +3188,7 @@
         <v>-0.64</v>
       </c>
       <c r="AC15">
-        <v>-1.96</v>
+        <v>-1.61</v>
       </c>
       <c r="AD15" t="s">
         <v>92</v>
@@ -3235,10 +3241,10 @@
         <v>47</v>
       </c>
       <c r="R16">
-        <v>10180</v>
+        <v>11320</v>
       </c>
       <c r="S16">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="T16">
         <v>10000</v>
@@ -3268,7 +3274,7 @@
         <v>-7.6</v>
       </c>
       <c r="AC16">
-        <v>0.4</v>
+        <v>-0.38</v>
       </c>
       <c r="AD16" t="s">
         <v>92</v>
@@ -3321,10 +3327,10 @@
         <v>47</v>
       </c>
       <c r="R17">
-        <v>9710</v>
+        <v>10600</v>
       </c>
       <c r="S17">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="T17">
         <v>9710</v>
@@ -3354,7 +3360,7 @@
         <v>-7.99</v>
       </c>
       <c r="AC17">
-        <v>-0.72</v>
+        <v>-1.22</v>
       </c>
       <c r="AD17" t="s">
         <v>92</v>
@@ -3404,7 +3410,7 @@
         <v>122</v>
       </c>
       <c r="R18">
-        <v>22210</v>
+        <v>22300</v>
       </c>
       <c r="S18">
         <v>2025</v>
@@ -3437,7 +3443,7 @@
         <v>-5.1937102813731091</v>
       </c>
       <c r="AC18">
-        <v>-5.8518240446944647</v>
+        <v>-5.6467060046133888</v>
       </c>
       <c r="AD18" t="s">
         <v>92</v>
@@ -3487,7 +3493,7 @@
         <v>129</v>
       </c>
       <c r="R19">
-        <v>6900</v>
+        <v>6880</v>
       </c>
       <c r="S19">
         <v>2025</v>
@@ -3520,7 +3526,7 @@
         <v>-0.92167099170610278</v>
       </c>
       <c r="AC19">
-        <v>3.1290026463666631</v>
+        <v>2.8365314882771391</v>
       </c>
       <c r="AD19" t="s">
         <v>130</v>
@@ -3570,7 +3576,7 @@
         <v>137</v>
       </c>
       <c r="R20">
-        <v>5930</v>
+        <v>6030</v>
       </c>
       <c r="S20">
         <v>2025</v>
@@ -3603,7 +3609,7 @@
         <v>-2.374533280372237</v>
       </c>
       <c r="AC20">
-        <v>2.4238536570113882</v>
+        <v>2.395929509145867</v>
       </c>
       <c r="AD20" t="s">
         <v>130</v>
@@ -3653,7 +3659,7 @@
         <v>144</v>
       </c>
       <c r="R21">
-        <v>9840</v>
+        <v>10120</v>
       </c>
       <c r="S21">
         <v>2025</v>
@@ -3686,7 +3692,7 @@
         <v>6.052839972547619</v>
       </c>
       <c r="AC21">
-        <v>1.8240018837397449</v>
+        <v>2.14828118146615</v>
       </c>
       <c r="AD21" t="s">
         <v>130</v>
@@ -3736,7 +3742,7 @@
         <v>151</v>
       </c>
       <c r="R22">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="S22">
         <v>2025</v>
@@ -3769,7 +3775,7 @@
         <v>19.42007857478194</v>
       </c>
       <c r="AC22">
-        <v>16.573452438327308</v>
+        <v>16.200949710845119</v>
       </c>
       <c r="AD22" t="s">
         <v>130</v>
@@ -3822,10 +3828,10 @@
         <v>47</v>
       </c>
       <c r="R23">
-        <v>7610</v>
+        <v>5960</v>
       </c>
       <c r="S23">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="T23">
         <v>8450</v>
@@ -3852,7 +3858,7 @@
         <v>-4.3899999999999997</v>
       </c>
       <c r="AC23">
-        <v>-31.3</v>
+        <v>-31.02</v>
       </c>
       <c r="AD23" t="s">
         <v>130</v>
@@ -3893,10 +3899,10 @@
         <v>36</v>
       </c>
       <c r="M24">
-        <v>63.426200999999999</v>
+        <v>63.426198999999997</v>
       </c>
       <c r="N24">
-        <v>10.368461</v>
+        <v>10.368463</v>
       </c>
       <c r="O24" t="s">
         <v>161</v>
@@ -3905,10 +3911,10 @@
         <v>47</v>
       </c>
       <c r="R24">
-        <v>10410</v>
+        <v>8850</v>
       </c>
       <c r="S24">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="U24" t="s">
         <v>48</v>
@@ -3967,7 +3973,7 @@
         <v>166</v>
       </c>
       <c r="R25">
-        <v>8290</v>
+        <v>8150</v>
       </c>
       <c r="S25">
         <v>2025</v>
@@ -4000,7 +4006,7 @@
         <v>-14.997368014956351</v>
       </c>
       <c r="AC25">
-        <v>-5.7380303291856283</v>
+        <v>-5.7793794118043973</v>
       </c>
       <c r="AD25" t="s">
         <v>130</v>
@@ -4044,7 +4050,7 @@
         <v>63.370897999999997</v>
       </c>
       <c r="N26">
-        <v>10.362788999999999</v>
+        <v>10.362795</v>
       </c>
       <c r="O26" t="s">
         <v>170</v>
@@ -4053,10 +4059,10 @@
         <v>47</v>
       </c>
       <c r="R26">
-        <v>21090</v>
+        <v>21570</v>
       </c>
       <c r="S26">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="U26" t="s">
         <v>48</v>
@@ -4074,7 +4080,7 @@
         <v>-7.89</v>
       </c>
       <c r="AC26">
-        <v>3.2</v>
+        <v>3.21</v>
       </c>
       <c r="AD26" t="s">
         <v>130</v>
@@ -4124,7 +4130,7 @@
         <v>177</v>
       </c>
       <c r="R27">
-        <v>6350</v>
+        <v>6510</v>
       </c>
       <c r="S27">
         <v>2025</v>
@@ -4157,7 +4163,7 @@
         <v>63.814406839634842</v>
       </c>
       <c r="AC27">
-        <v>15.43278808182289</v>
+        <v>15.37018804324128</v>
       </c>
       <c r="AD27" t="s">
         <v>130</v>
@@ -4207,7 +4213,7 @@
         <v>184</v>
       </c>
       <c r="R28">
-        <v>12100</v>
+        <v>12500</v>
       </c>
       <c r="S28">
         <v>2025</v>
@@ -4240,7 +4246,7 @@
         <v>-2.9154772977772909</v>
       </c>
       <c r="AC28">
-        <v>2.6670169412201128</v>
+        <v>2.976738896294107</v>
       </c>
       <c r="AD28" t="s">
         <v>130</v>
@@ -4284,7 +4290,7 @@
         <v>63.408473000000001</v>
       </c>
       <c r="N29">
-        <v>10.446717</v>
+        <v>10.446718000000001</v>
       </c>
       <c r="O29" t="s">
         <v>190</v>
@@ -4293,10 +4299,10 @@
         <v>47</v>
       </c>
       <c r="R29">
-        <v>11520</v>
+        <v>11380</v>
       </c>
       <c r="S29">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="T29">
         <v>9750</v>
@@ -4323,7 +4329,7 @@
         <v>4.8099999999999996</v>
       </c>
       <c r="AC29">
-        <v>-1.2</v>
+        <v>-1.19</v>
       </c>
       <c r="AD29" t="s">
         <v>130</v>
@@ -4432,7 +4438,7 @@
         <v>63.436717999999999</v>
       </c>
       <c r="N31">
-        <v>10.459065000000001</v>
+        <v>10.459066</v>
       </c>
       <c r="O31" t="s">
         <v>200</v>
@@ -4441,10 +4447,10 @@
         <v>47</v>
       </c>
       <c r="R31">
-        <v>12050</v>
+        <v>12700</v>
       </c>
       <c r="S31">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="T31">
         <v>12780</v>
@@ -4463,6 +4469,9 @@
       </c>
       <c r="AB31">
         <v>-2.5099999999999998</v>
+      </c>
+      <c r="AC31">
+        <v>4.33</v>
       </c>
       <c r="AD31" t="s">
         <v>130</v>
@@ -4657,7 +4666,7 @@
         <v>217</v>
       </c>
       <c r="R34">
-        <v>13810</v>
+        <v>14350</v>
       </c>
       <c r="S34">
         <v>2025</v>
@@ -4690,7 +4699,7 @@
         <v>1.6008785123526439</v>
       </c>
       <c r="AC34">
-        <v>10.1072056319671</v>
+        <v>10.048652079471809</v>
       </c>
       <c r="AD34" t="s">
         <v>130</v>
@@ -4740,7 +4749,7 @@
         <v>224</v>
       </c>
       <c r="R35">
-        <v>5710</v>
+        <v>5840</v>
       </c>
       <c r="S35">
         <v>2025</v>
@@ -4773,7 +4782,7 @@
         <v>-13.16025688332441</v>
       </c>
       <c r="AC35">
-        <v>-1.9052323148597621</v>
+        <v>-1.579566505985031</v>
       </c>
       <c r="AD35" t="s">
         <v>130</v>
@@ -4823,7 +4832,7 @@
         <v>229</v>
       </c>
       <c r="R36">
-        <v>1310</v>
+        <v>1380</v>
       </c>
       <c r="S36">
         <v>2025</v>
@@ -4856,7 +4865,7 @@
         <v>1.8265122185638689</v>
       </c>
       <c r="AC36">
-        <v>-5.322248291339382</v>
+        <v>-4.8560489755690721</v>
       </c>
       <c r="AD36" t="s">
         <v>130</v>
@@ -4909,10 +4918,10 @@
         <v>47</v>
       </c>
       <c r="R37">
-        <v>3070</v>
+        <v>2980</v>
       </c>
       <c r="S37">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="T37">
         <v>3240</v>
@@ -4986,10 +4995,10 @@
         <v>47</v>
       </c>
       <c r="R38">
-        <v>5900</v>
+        <v>5920</v>
       </c>
       <c r="S38">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="U38" t="s">
         <v>48</v>
@@ -5004,7 +5013,7 @@
         <v>-5.72</v>
       </c>
       <c r="AC38">
-        <v>-0.1</v>
+        <v>0.24</v>
       </c>
       <c r="AD38" t="s">
         <v>130</v>
@@ -5057,10 +5066,10 @@
         <v>47</v>
       </c>
       <c r="R39">
-        <v>5830</v>
+        <v>5440</v>
       </c>
       <c r="S39">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="T39">
         <v>7520</v>
@@ -5084,7 +5093,7 @@
         <v>10.97</v>
       </c>
       <c r="AC39">
-        <v>-4.7</v>
+        <v>-4.6900000000000004</v>
       </c>
       <c r="AD39" t="s">
         <v>130</v>
@@ -5137,10 +5146,10 @@
         <v>47</v>
       </c>
       <c r="R40">
-        <v>15640</v>
+        <v>14710</v>
       </c>
       <c r="S40">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="T40">
         <v>16720</v>
@@ -5211,7 +5220,7 @@
         <v>256</v>
       </c>
       <c r="R41">
-        <v>11340</v>
+        <v>11680</v>
       </c>
       <c r="S41">
         <v>2025</v>
@@ -5244,7 +5253,7 @@
         <v>-9.3451484542393608</v>
       </c>
       <c r="AC41">
-        <v>-4.3711535542749758</v>
+        <v>-4.0184209892491722</v>
       </c>
       <c r="AD41" t="s">
         <v>130</v>
@@ -5388,6 +5397,9 @@
       <c r="W43" t="s">
         <v>263</v>
       </c>
+      <c r="Y43">
+        <v>34.869999999999997</v>
+      </c>
       <c r="Z43">
         <v>8.17</v>
       </c>
@@ -5510,7 +5522,7 @@
         <v>63.437779999999997</v>
       </c>
       <c r="N45">
-        <v>10.443199</v>
+        <v>10.443199999999999</v>
       </c>
       <c r="O45" t="s">
         <v>274</v>
@@ -5599,7 +5611,7 @@
         <v>281</v>
       </c>
       <c r="R46">
-        <v>1780</v>
+        <v>1810</v>
       </c>
       <c r="S46">
         <v>2025</v>
@@ -5632,7 +5644,7 @@
         <v>-22.25360864581916</v>
       </c>
       <c r="AC46">
-        <v>-6.5843527095010854</v>
+        <v>-6.4988907983568822</v>
       </c>
       <c r="AD46" t="s">
         <v>282</v>
@@ -5682,7 +5694,7 @@
         <v>289</v>
       </c>
       <c r="R47">
-        <v>3120</v>
+        <v>3130</v>
       </c>
       <c r="S47">
         <v>2025</v>
@@ -5715,7 +5727,7 @@
         <v>-13.075624372810861</v>
       </c>
       <c r="AC47">
-        <v>-3.112381142991627</v>
+        <v>-2.948199938752361</v>
       </c>
       <c r="AD47" t="s">
         <v>282</v>
@@ -5759,7 +5771,7 @@
         <v>63.428215000000002</v>
       </c>
       <c r="N48">
-        <v>10.495454000000001</v>
+        <v>10.495455</v>
       </c>
       <c r="O48" t="s">
         <v>295</v>
@@ -5845,7 +5857,7 @@
         <v>302</v>
       </c>
       <c r="R49">
-        <v>6130</v>
+        <v>6440</v>
       </c>
       <c r="S49">
         <v>2025</v>
@@ -5878,7 +5890,7 @@
         <v>6.6551622470865546</v>
       </c>
       <c r="AC49">
-        <v>4.4063362630687664</v>
+        <v>4.6044313585348773</v>
       </c>
       <c r="AD49" t="s">
         <v>282</v>
@@ -5928,7 +5940,7 @@
         <v>309</v>
       </c>
       <c r="R50">
-        <v>3130</v>
+        <v>3620</v>
       </c>
       <c r="S50">
         <v>2025</v>
@@ -5961,7 +5973,7 @@
         <v>43.887626391584099</v>
       </c>
       <c r="AC50">
-        <v>15.841895555362591</v>
+        <v>17.215048582884581</v>
       </c>
       <c r="AD50" t="s">
         <v>282</v>
@@ -6011,7 +6023,7 @@
         <v>316</v>
       </c>
       <c r="R51">
-        <v>7160</v>
+        <v>7430</v>
       </c>
       <c r="S51">
         <v>2025</v>
@@ -6044,7 +6056,7 @@
         <v>-1.6832691948692191</v>
       </c>
       <c r="AC51">
-        <v>2.6124326749522591</v>
+        <v>2.759627515679397</v>
       </c>
       <c r="AD51" t="s">
         <v>282</v>
@@ -6301,6 +6313,9 @@
       <c r="O7">
         <v>1.77</v>
       </c>
+      <c r="P7">
+        <v>3.34</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -6598,6 +6613,9 @@
       <c r="O13">
         <v>-8.8892741276406007</v>
       </c>
+      <c r="P13">
+        <v>2.3715654758294402</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -6910,6 +6928,9 @@
       <c r="N25">
         <v>2.08</v>
       </c>
+      <c r="P25">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -7207,6 +7228,9 @@
       <c r="O31">
         <v>-9.7437199614328733</v>
       </c>
+      <c r="P31">
+        <v>-6.1955864460618297</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -7489,6 +7513,9 @@
       <c r="O37">
         <v>12.17532031119786</v>
       </c>
+      <c r="P37">
+        <v>15.08295038554404</v>
+      </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -7786,6 +7813,9 @@
       <c r="O43">
         <v>1.7576382763483831</v>
       </c>
+      <c r="P43">
+        <v>-0.40122997569805863</v>
+      </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -8083,6 +8113,9 @@
       <c r="O49">
         <v>-0.31206182197716092</v>
       </c>
+      <c r="P49">
+        <v>-1.1688742054366761</v>
+      </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -8380,6 +8413,9 @@
       <c r="O55">
         <v>-8.39</v>
       </c>
+      <c r="P55">
+        <v>-4.9800000000000004</v>
+      </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -8677,6 +8713,9 @@
       <c r="O61">
         <v>-11.73</v>
       </c>
+      <c r="P61">
+        <v>-6.98</v>
+      </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -8974,6 +9013,9 @@
       <c r="O67">
         <v>7.37</v>
       </c>
+      <c r="P67">
+        <v>9.76</v>
+      </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -9436,6 +9478,9 @@
       <c r="O79">
         <v>5.2479013142900488</v>
       </c>
+      <c r="P79">
+        <v>9.3902237635207655</v>
+      </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -9697,6 +9742,9 @@
       <c r="O85">
         <v>-2.15</v>
       </c>
+      <c r="P85">
+        <v>2.46</v>
+      </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -10078,6 +10126,9 @@
       <c r="O97">
         <v>-6.75</v>
       </c>
+      <c r="P97">
+        <v>-4.58</v>
+      </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -11083,6 +11134,9 @@
       <c r="O127">
         <v>-1.08</v>
       </c>
+      <c r="P127">
+        <v>-1.1200000000000001</v>
+      </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -11380,6 +11434,9 @@
       <c r="O133">
         <v>-0.56970773572708744</v>
       </c>
+      <c r="P133">
+        <v>3.073517616906063</v>
+      </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
@@ -11677,6 +11734,9 @@
       <c r="O139">
         <v>2.1171309653313259</v>
       </c>
+      <c r="P139">
+        <v>2.0508634066392921</v>
+      </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
@@ -11974,6 +12034,9 @@
       <c r="O145">
         <v>8.2070554006546281</v>
       </c>
+      <c r="P145">
+        <v>11.733870967741939</v>
+      </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
@@ -12265,6 +12328,9 @@
       <c r="O151">
         <v>-7.6259734073399033</v>
       </c>
+      <c r="P151">
+        <v>1.0906009770672581E-2</v>
+      </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
@@ -12517,6 +12583,9 @@
       <c r="O157">
         <v>1.4</v>
       </c>
+      <c r="P157">
+        <v>4.38</v>
+      </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
@@ -12814,6 +12883,9 @@
       <c r="O163">
         <v>0.91710884111255719</v>
       </c>
+      <c r="P163">
+        <v>6.9359201673031556</v>
+      </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
@@ -13060,6 +13132,9 @@
       <c r="O169">
         <v>-2.36</v>
       </c>
+      <c r="P169">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
@@ -13321,6 +13396,9 @@
       <c r="O175">
         <v>0.06</v>
       </c>
+      <c r="P175">
+        <v>-0.57999999999999996</v>
+      </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
@@ -13618,6 +13696,9 @@
       <c r="O181">
         <v>-9.6281680117744077</v>
       </c>
+      <c r="P181">
+        <v>-5.4552238805970159</v>
+      </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
@@ -14149,6 +14230,9 @@
       <c r="O199">
         <v>9.27</v>
       </c>
+      <c r="P199">
+        <v>13.27</v>
+      </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
@@ -14575,6 +14659,9 @@
       <c r="O211">
         <v>-8.1365412753977466</v>
       </c>
+      <c r="P211">
+        <v>-3.396644521007675</v>
+      </c>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
@@ -14854,6 +14941,9 @@
       <c r="O217">
         <v>-9.18</v>
       </c>
+      <c r="P217">
+        <v>-3.7</v>
+      </c>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
@@ -15133,6 +15223,9 @@
       <c r="O223">
         <v>-7.03</v>
       </c>
+      <c r="P223">
+        <v>-4.26</v>
+      </c>
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
@@ -15454,6 +15547,9 @@
       <c r="O235">
         <v>-33.369999999999997</v>
       </c>
+      <c r="P235">
+        <v>-30</v>
+      </c>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
@@ -15751,6 +15847,9 @@
       <c r="O241">
         <v>25.883570759599749</v>
       </c>
+      <c r="P241">
+        <v>32.940019665683387</v>
+      </c>
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
@@ -16048,6 +16147,9 @@
       <c r="O247">
         <v>0.59021267338630334</v>
       </c>
+      <c r="P247">
+        <v>6.5359864020363201</v>
+      </c>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
@@ -16327,6 +16429,9 @@
       <c r="O253">
         <v>-5.3312524032480653</v>
       </c>
+      <c r="P253">
+        <v>1.243993593166048</v>
+      </c>
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
@@ -16624,6 +16729,9 @@
       <c r="O259">
         <v>2.253323108384464</v>
       </c>
+      <c r="P259">
+        <v>4.4175829284734736</v>
+      </c>
     </row>
     <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
@@ -16921,6 +17029,9 @@
       <c r="O265">
         <v>3.7240156863790341</v>
       </c>
+      <c r="P265">
+        <v>5.9186288922955521</v>
+      </c>
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
@@ -17047,6 +17158,9 @@
       <c r="O271">
         <v>-0.89</v>
       </c>
+      <c r="P271">
+        <v>4.32</v>
+      </c>
     </row>
     <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
@@ -17344,6 +17458,9 @@
       <c r="O277">
         <v>0.31</v>
       </c>
+      <c r="P277">
+        <v>3.68</v>
+      </c>
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
@@ -17598,6 +17715,9 @@
       </c>
       <c r="O283">
         <v>-2.9143552392223659</v>
+      </c>
+      <c r="P283">
+        <v>-2.9171414062533318</v>
       </c>
     </row>
   </sheetData>
@@ -17607,7 +17727,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17718,13 +17838,13 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>2.8016756027593241</v>
+        <v>3.1611794006830558</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3">
-        <v>1.89644040279189</v>
+        <v>1.994551933475184</v>
       </c>
       <c r="G3">
         <v>2020</v>
@@ -17733,7 +17853,7 @@
         <v>348</v>
       </c>
       <c r="I3">
-        <v>1.028016756027593</v>
+        <v>1.031611794006831</v>
       </c>
       <c r="J3" t="s">
         <v>346</v>
@@ -17748,10 +17868,10 @@
         <v>347</v>
       </c>
       <c r="N3">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="O3">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -17903,16 +18023,16 @@
         <v>2025</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>1.049554664984709</v>
+        <v>1.2086701511097919</v>
       </c>
       <c r="E7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7">
-        <v>1.338790973100743</v>
+        <v>1.3191172196044481</v>
       </c>
       <c r="G7">
         <v>2024</v>
@@ -17921,7 +18041,7 @@
         <v>352</v>
       </c>
       <c r="I7">
-        <v>1.0104955466498471</v>
+        <v>1.0120867015110979</v>
       </c>
       <c r="J7" t="s">
         <v>346</v>
@@ -17930,16 +18050,16 @@
         <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="N7">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="O7">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -17953,25 +18073,25 @@
         <v>12</v>
       </c>
       <c r="D8">
-        <v>-4.1189839192318223</v>
+        <v>-3.7836820943567329</v>
       </c>
       <c r="E8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8">
-        <v>2.1698907138971082</v>
+        <v>2.2475831734456171</v>
       </c>
       <c r="G8">
         <v>2019</v>
       </c>
       <c r="H8" t="s">
+        <v>353</v>
+      </c>
+      <c r="I8">
+        <v>0.96216317905643267</v>
+      </c>
+      <c r="J8" t="s">
         <v>354</v>
-      </c>
-      <c r="I8">
-        <v>0.95881016080768178</v>
-      </c>
-      <c r="J8" t="s">
-        <v>355</v>
       </c>
       <c r="K8" t="s">
         <v>36</v>
@@ -17983,10 +18103,10 @@
         <v>347</v>
       </c>
       <c r="N8">
-        <v>-8.4</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="O8">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -18000,25 +18120,25 @@
         <v>12</v>
       </c>
       <c r="D9">
-        <v>0.46265214785499159</v>
+        <v>0.81397623654206885</v>
       </c>
       <c r="E9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9">
-        <v>3.1865539588174281</v>
+        <v>3.2505397328650809</v>
       </c>
       <c r="G9">
         <v>2019</v>
       </c>
       <c r="H9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I9">
-        <v>1.0046265214785499</v>
+        <v>1.0081397623654209</v>
       </c>
       <c r="J9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K9" t="s">
         <v>36</v>
@@ -18030,10 +18150,10 @@
         <v>347</v>
       </c>
       <c r="N9">
-        <v>-5.8</v>
+        <v>-5.6</v>
       </c>
       <c r="O9">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -18047,25 +18167,25 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <v>2.0538875790267359</v>
+        <v>2.4107763161258289</v>
       </c>
       <c r="E10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10">
-        <v>3.3785216607623849</v>
+        <v>3.441806510289469</v>
       </c>
       <c r="G10">
         <v>2019</v>
       </c>
       <c r="H10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I10">
-        <v>1.0205388757902669</v>
+        <v>1.0241077631612581</v>
       </c>
       <c r="J10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K10" t="s">
         <v>36</v>
@@ -18077,10 +18197,10 @@
         <v>347</v>
       </c>
       <c r="N10">
-        <v>-4.5999999999999996</v>
+        <v>-4.3</v>
       </c>
       <c r="O10">
-        <v>8.6999999999999993</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -18094,25 +18214,25 @@
         <v>12</v>
       </c>
       <c r="D11">
-        <v>0.45862000306280398</v>
+        <v>0.80992999109092967</v>
       </c>
       <c r="E11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11">
-        <v>4.1435291235867888</v>
+        <v>4.1988180236699018</v>
       </c>
       <c r="G11">
         <v>2019</v>
       </c>
       <c r="H11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I11">
-        <v>1.004586200030628</v>
+        <v>1.0080992999109091</v>
       </c>
       <c r="J11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K11" t="s">
         <v>36</v>
@@ -18124,10 +18244,57 @@
         <v>347</v>
       </c>
       <c r="N11">
-        <v>-7.7</v>
+        <v>-7.4</v>
       </c>
       <c r="O11">
-        <v>8.6</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B12">
+        <v>2025</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>2.0283895242479311</v>
+      </c>
+      <c r="E12">
+        <v>43</v>
+      </c>
+      <c r="F12">
+        <v>4.4531186872236557</v>
+      </c>
+      <c r="G12">
+        <v>2019</v>
+      </c>
+      <c r="H12" t="s">
+        <v>358</v>
+      </c>
+      <c r="I12">
+        <v>1.0202838952424791</v>
+      </c>
+      <c r="J12" t="s">
+        <v>354</v>
+      </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" t="s">
+        <v>329</v>
+      </c>
+      <c r="M12" t="s">
+        <v>347</v>
+      </c>
+      <c r="N12">
+        <v>-6.7</v>
+      </c>
+      <c r="O12">
+        <v>10.8</v>
       </c>
     </row>
   </sheetData>
@@ -18201,7 +18368,7 @@
         <v>2020</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>344</v>
@@ -18210,16 +18377,16 @@
         <v>38</v>
       </c>
       <c r="F2">
-        <v>5.9494302655694407</v>
+        <v>5.785002541316203</v>
       </c>
       <c r="G2">
-        <v>1.2595122108161301</v>
+        <v>1.2224978186173201</v>
       </c>
       <c r="H2">
-        <v>0.9322308673932117</v>
+        <v>0.93267950661880661</v>
       </c>
       <c r="I2">
-        <v>-6.77691326067883</v>
+        <v>-6.7320493381193387</v>
       </c>
       <c r="K2" t="s">
         <v>345</v>
@@ -18228,7 +18395,7 @@
         <v>36</v>
       </c>
       <c r="M2" s="2">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="N2" t="s">
         <v>362</v>
@@ -18245,7 +18412,7 @@
         <v>2021</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>344</v>
@@ -18254,16 +18421,16 @@
         <v>43</v>
       </c>
       <c r="F3">
-        <v>10.07997236182552</v>
+        <v>9.7897456125910907</v>
       </c>
       <c r="G3">
-        <v>2.0566380307799781</v>
+        <v>1.99463713219448</v>
       </c>
       <c r="H3">
-        <v>1.0316092864285971</v>
+        <v>1.031611794006831</v>
       </c>
       <c r="I3">
-        <v>3.1609286428596839</v>
+        <v>3.1611794006830558</v>
       </c>
       <c r="K3" t="s">
         <v>348</v>
@@ -18272,7 +18439,7 @@
         <v>36</v>
       </c>
       <c r="M3" s="2">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="N3" t="s">
         <v>362</v>
@@ -18289,7 +18456,7 @@
         <v>2022</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>344</v>
@@ -18298,16 +18465,16 @@
         <v>39</v>
       </c>
       <c r="F4">
-        <v>11.04756687784138</v>
+        <v>11.078312385715231</v>
       </c>
       <c r="G4">
-        <v>2.3174680798670368</v>
+        <v>2.3279845928921739</v>
       </c>
       <c r="H4">
-        <v>1.0506549690037441</v>
+        <v>1.047784600689122</v>
       </c>
       <c r="I4">
-        <v>5.065496900374411</v>
+        <v>4.778460068912227</v>
       </c>
       <c r="K4" t="s">
         <v>349</v>
@@ -18316,7 +18483,7 @@
         <v>36</v>
       </c>
       <c r="M4" s="2">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="N4" t="s">
         <v>362</v>
@@ -18333,7 +18500,7 @@
         <v>2023</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>344</v>
@@ -18342,16 +18509,16 @@
         <v>37</v>
       </c>
       <c r="F5">
-        <v>4.3354824840322248</v>
+        <v>4.7485617091108079</v>
       </c>
       <c r="G5">
-        <v>0.87978247551616862</v>
+        <v>0.96252980929107113</v>
       </c>
       <c r="H5">
-        <v>1.017873061989083</v>
+        <v>1.015839074493373</v>
       </c>
       <c r="I5">
-        <v>1.787306198908345</v>
+        <v>1.5839074493373411</v>
       </c>
       <c r="K5" t="s">
         <v>350</v>
@@ -18360,7 +18527,7 @@
         <v>36</v>
       </c>
       <c r="M5" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="N5" t="s">
         <v>362</v>
@@ -18377,7 +18544,7 @@
         <v>2024</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>344</v>
@@ -18386,16 +18553,16 @@
         <v>35</v>
       </c>
       <c r="F6">
-        <v>12.397405416888921</v>
+        <v>11.487399740474469</v>
       </c>
       <c r="G6">
-        <v>2.606097016167654</v>
+        <v>2.420373623989065</v>
       </c>
       <c r="H6">
-        <v>0.98262839644362987</v>
+        <v>0.98436838013908468</v>
       </c>
       <c r="I6">
-        <v>-1.737160355637013</v>
+        <v>-1.563161986091532</v>
       </c>
       <c r="K6" t="s">
         <v>351</v>
@@ -18404,7 +18571,7 @@
         <v>36</v>
       </c>
       <c r="M6" s="2">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="N6" t="s">
         <v>362</v>
@@ -18421,7 +18588,7 @@
         <v>2025</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>344</v>
@@ -18430,16 +18597,16 @@
         <v>38</v>
       </c>
       <c r="F7">
-        <v>5.9949456044825888</v>
+        <v>6.0864832667314444</v>
       </c>
       <c r="G7">
-        <v>1.3035842420054591</v>
+        <v>1.319099271528599</v>
       </c>
       <c r="H7">
-        <v>1.0112886044001741</v>
+        <v>1.0120867015110979</v>
       </c>
       <c r="I7">
-        <v>1.128860440017365</v>
+        <v>1.2086701511097919</v>
       </c>
       <c r="K7" t="s">
         <v>352</v>
@@ -18448,7 +18615,7 @@
         <v>36</v>
       </c>
       <c r="M7" s="2">
-        <v>45962</v>
+        <v>45992</v>
       </c>
       <c r="N7" t="s">
         <v>362</v>
@@ -18465,7 +18632,7 @@
         <v>2021</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>344</v>
@@ -18474,25 +18641,25 @@
         <v>43</v>
       </c>
       <c r="G8">
-        <v>2.316205220454314</v>
+        <v>2.2476666817096991</v>
       </c>
       <c r="H8">
-        <v>0.96169801989822301</v>
+        <v>0.96216317905643267</v>
       </c>
       <c r="I8">
-        <v>-3.8301980101776989</v>
+        <v>-3.7836820943567329</v>
       </c>
       <c r="J8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L8" t="s">
         <v>36</v>
       </c>
       <c r="M8" s="2">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="N8" t="s">
         <v>362</v>
@@ -18509,7 +18676,7 @@
         <v>2022</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>344</v>
@@ -18518,25 +18685,25 @@
         <v>43</v>
       </c>
       <c r="G9">
-        <v>3.3003159524800321</v>
+        <v>3.250577166690003</v>
       </c>
       <c r="H9">
-        <v>1.01041280328713</v>
+        <v>1.0081397623654209</v>
       </c>
       <c r="I9">
-        <v>1.0412803287129571</v>
+        <v>0.81397623654206885</v>
       </c>
       <c r="J9" t="s">
+        <v>354</v>
+      </c>
+      <c r="K9" t="s">
         <v>355</v>
-      </c>
-      <c r="K9" t="s">
-        <v>356</v>
       </c>
       <c r="L9" t="s">
         <v>36</v>
       </c>
       <c r="M9" s="2">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="N9" t="s">
         <v>362</v>
@@ -18553,7 +18720,7 @@
         <v>2023</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>344</v>
@@ -18562,25 +18729,25 @@
         <v>43</v>
       </c>
       <c r="G10">
-        <v>3.4750508240541662</v>
+        <v>3.4418321241436902</v>
       </c>
       <c r="H10">
-        <v>1.028471973954844</v>
+        <v>1.0241077631612581</v>
       </c>
       <c r="I10">
-        <v>2.8471973954844021</v>
+        <v>2.4107763161258289</v>
       </c>
       <c r="J10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L10" t="s">
         <v>36</v>
       </c>
       <c r="M10" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="N10" t="s">
         <v>362</v>
@@ -18597,7 +18764,7 @@
         <v>2024</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>344</v>
@@ -18606,25 +18773,25 @@
         <v>43</v>
       </c>
       <c r="G11">
-        <v>4.3419191491305558</v>
+        <v>4.1987809718685432</v>
       </c>
       <c r="H11">
-        <v>1.010605766554463</v>
+        <v>1.0080992999109091</v>
       </c>
       <c r="I11">
-        <v>1.060576655446299</v>
+        <v>0.80992999109092967</v>
       </c>
       <c r="J11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L11" t="s">
         <v>36</v>
       </c>
       <c r="M11" s="2">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="N11" t="s">
         <v>362</v>
@@ -18641,7 +18808,7 @@
         <v>2025</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>344</v>
@@ -18650,25 +18817,25 @@
         <v>43</v>
       </c>
       <c r="G12">
-        <v>4.5846556930046276</v>
+        <v>4.4530774831300262</v>
       </c>
       <c r="H12">
-        <v>1.0220140952576311</v>
+        <v>1.0202838952424791</v>
       </c>
       <c r="I12">
-        <v>2.201409525763065</v>
+        <v>2.0283895242479311</v>
       </c>
       <c r="J12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K12" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L12" t="s">
         <v>36</v>
       </c>
       <c r="M12" s="2">
-        <v>45962</v>
+        <v>45992</v>
       </c>
       <c r="N12" t="s">
         <v>362</v>
@@ -18684,11 +18851,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:M148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M109" sqref="M109"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18706,13 +18871,13 @@
         <v>333</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>342</v>
@@ -18721,19 +18886,19 @@
         <v>343</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>360</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>317</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -18762,7 +18927,7 @@
         <v>-3.5</v>
       </c>
       <c r="I2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J2" s="2">
         <v>44166</v>
@@ -18774,7 +18939,7 @@
         <v>2020</v>
       </c>
       <c r="M2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -18803,7 +18968,7 @@
         <v>-4.9000000000000004</v>
       </c>
       <c r="I3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J3" s="2">
         <v>44197</v>
@@ -18815,7 +18980,7 @@
         <v>2021</v>
       </c>
       <c r="M3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -18844,7 +19009,7 @@
         <v>-5.6</v>
       </c>
       <c r="I4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J4" s="2">
         <v>44228</v>
@@ -18856,7 +19021,7 @@
         <v>2021</v>
       </c>
       <c r="M4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -18885,7 +19050,7 @@
         <v>-3.9</v>
       </c>
       <c r="I5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J5" s="2">
         <v>44256</v>
@@ -18897,7 +19062,7 @@
         <v>2021</v>
       </c>
       <c r="M5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -18926,7 +19091,7 @@
         <v>-2</v>
       </c>
       <c r="I6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J6" s="2">
         <v>44287</v>
@@ -18938,7 +19103,7 @@
         <v>2021</v>
       </c>
       <c r="M6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -18967,7 +19132,7 @@
         <v>-1.5</v>
       </c>
       <c r="I7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J7" s="2">
         <v>44317</v>
@@ -18979,7 +19144,7 @@
         <v>2021</v>
       </c>
       <c r="M7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -19008,7 +19173,7 @@
         <v>-1.1000000000000001</v>
       </c>
       <c r="I8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J8" s="2">
         <v>44348</v>
@@ -19020,7 +19185,7 @@
         <v>2021</v>
       </c>
       <c r="M8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -19049,7 +19214,7 @@
         <v>-0.7</v>
       </c>
       <c r="I9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J9" s="2">
         <v>44378</v>
@@ -19061,7 +19226,7 @@
         <v>2021</v>
       </c>
       <c r="M9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -19090,7 +19255,7 @@
         <v>0.5</v>
       </c>
       <c r="I10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J10" s="2">
         <v>44409</v>
@@ -19102,7 +19267,7 @@
         <v>2021</v>
       </c>
       <c r="M10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -19131,7 +19296,7 @@
         <v>0.4</v>
       </c>
       <c r="I11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J11" s="2">
         <v>44440</v>
@@ -19143,7 +19308,7 @@
         <v>2021</v>
       </c>
       <c r="M11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -19172,7 +19337,7 @@
         <v>0.8</v>
       </c>
       <c r="I12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J12" s="2">
         <v>44470</v>
@@ -19184,7 +19349,7 @@
         <v>2021</v>
       </c>
       <c r="M12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -19213,7 +19378,7 @@
         <v>1.8</v>
       </c>
       <c r="I13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J13" s="2">
         <v>44501</v>
@@ -19225,7 +19390,7 @@
         <v>2021</v>
       </c>
       <c r="M13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -19254,7 +19419,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="I14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J14" s="2">
         <v>44531</v>
@@ -19266,7 +19431,7 @@
         <v>2021</v>
       </c>
       <c r="M14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -19295,7 +19460,7 @@
         <v>3.3</v>
       </c>
       <c r="I15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J15" s="2">
         <v>44562</v>
@@ -19307,7 +19472,7 @@
         <v>2022</v>
       </c>
       <c r="M15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -19336,7 +19501,7 @@
         <v>4.3</v>
       </c>
       <c r="I16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J16" s="2">
         <v>44593</v>
@@ -19348,7 +19513,7 @@
         <v>2022</v>
       </c>
       <c r="M16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -19377,7 +19542,7 @@
         <v>5.7</v>
       </c>
       <c r="I17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J17" s="2">
         <v>44621</v>
@@ -19389,7 +19554,7 @@
         <v>2022</v>
       </c>
       <c r="M17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -19418,7 +19583,7 @@
         <v>6.1</v>
       </c>
       <c r="I18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J18" s="2">
         <v>44652</v>
@@ -19430,7 +19595,7 @@
         <v>2022</v>
       </c>
       <c r="M18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -19459,7 +19624,7 @@
         <v>7.5</v>
       </c>
       <c r="I19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J19" s="2">
         <v>44682</v>
@@ -19471,7 +19636,7 @@
         <v>2022</v>
       </c>
       <c r="M19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -19500,7 +19665,7 @@
         <v>8</v>
       </c>
       <c r="I20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J20" s="2">
         <v>44713</v>
@@ -19512,7 +19677,7 @@
         <v>2022</v>
       </c>
       <c r="M20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -19541,7 +19706,7 @@
         <v>7.4</v>
       </c>
       <c r="I21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J21" s="2">
         <v>44743</v>
@@ -19553,7 +19718,7 @@
         <v>2022</v>
       </c>
       <c r="M21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -19582,7 +19747,7 @@
         <v>7.6</v>
       </c>
       <c r="I22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J22" s="2">
         <v>44774</v>
@@ -19594,7 +19759,7 @@
         <v>2022</v>
       </c>
       <c r="M22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -19623,7 +19788,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="I23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J23" s="2">
         <v>44805</v>
@@ -19635,7 +19800,7 @@
         <v>2022</v>
       </c>
       <c r="M23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -19664,7 +19829,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="I24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J24" s="2">
         <v>44835</v>
@@ -19676,7 +19841,7 @@
         <v>2022</v>
       </c>
       <c r="M24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -19705,7 +19870,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="I25" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J25" s="2">
         <v>44866</v>
@@ -19717,7 +19882,7 @@
         <v>2022</v>
       </c>
       <c r="M25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -19746,7 +19911,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="I26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J26" s="2">
         <v>44896</v>
@@ -19758,7 +19923,7 @@
         <v>2022</v>
       </c>
       <c r="M26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -19787,7 +19952,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J27" s="2">
         <v>44927</v>
@@ -19799,7 +19964,7 @@
         <v>2023</v>
       </c>
       <c r="M27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -19828,7 +19993,7 @@
         <v>10.7</v>
       </c>
       <c r="I28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J28" s="2">
         <v>44958</v>
@@ -19840,7 +20005,7 @@
         <v>2023</v>
       </c>
       <c r="M28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -19869,7 +20034,7 @@
         <v>10.5</v>
       </c>
       <c r="I29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J29" s="2">
         <v>44986</v>
@@ -19881,7 +20046,7 @@
         <v>2023</v>
       </c>
       <c r="M29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -19910,7 +20075,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="I30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J30" s="2">
         <v>45017</v>
@@ -19922,7 +20087,7 @@
         <v>2023</v>
       </c>
       <c r="M30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -19951,7 +20116,7 @@
         <v>9.6</v>
       </c>
       <c r="I31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J31" s="2">
         <v>45047</v>
@@ -19963,7 +20128,7 @@
         <v>2023</v>
       </c>
       <c r="M31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -19992,7 +20157,7 @@
         <v>9.9</v>
       </c>
       <c r="I32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J32" s="2">
         <v>45078</v>
@@ -20004,7 +20169,7 @@
         <v>2023</v>
       </c>
       <c r="M32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -20033,7 +20198,7 @@
         <v>10.6</v>
       </c>
       <c r="I33" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J33" s="2">
         <v>45108</v>
@@ -20045,7 +20210,7 @@
         <v>2023</v>
       </c>
       <c r="M33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -20074,7 +20239,7 @@
         <v>10.6</v>
       </c>
       <c r="I34" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J34" s="2">
         <v>45139</v>
@@ -20086,7 +20251,7 @@
         <v>2023</v>
       </c>
       <c r="M34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -20115,7 +20280,7 @@
         <v>10.1</v>
       </c>
       <c r="I35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J35" s="2">
         <v>45170</v>
@@ -20127,7 +20292,7 @@
         <v>2023</v>
       </c>
       <c r="M35" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -20156,7 +20321,7 @@
         <v>10.6</v>
       </c>
       <c r="I36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J36" s="2">
         <v>45200</v>
@@ -20168,7 +20333,7 @@
         <v>2023</v>
       </c>
       <c r="M36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -20197,7 +20362,7 @@
         <v>10.3</v>
       </c>
       <c r="I37" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J37" s="2">
         <v>45231</v>
@@ -20209,7 +20374,7 @@
         <v>2023</v>
       </c>
       <c r="M37" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -20238,7 +20403,7 @@
         <v>10.5</v>
       </c>
       <c r="I38" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J38" s="2">
         <v>45261</v>
@@ -20250,7 +20415,7 @@
         <v>2023</v>
       </c>
       <c r="M38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -20279,7 +20444,7 @@
         <v>9.9</v>
       </c>
       <c r="I39" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J39" s="2">
         <v>45292</v>
@@ -20291,7 +20456,7 @@
         <v>2024</v>
       </c>
       <c r="M39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -20320,7 +20485,7 @@
         <v>9.6</v>
       </c>
       <c r="I40" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J40" s="2">
         <v>45323</v>
@@ -20332,7 +20497,7 @@
         <v>2024</v>
       </c>
       <c r="M40" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -20361,7 +20526,7 @@
         <v>8.4</v>
       </c>
       <c r="I41" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J41" s="2">
         <v>45352</v>
@@ -20373,7 +20538,7 @@
         <v>2024</v>
       </c>
       <c r="M41" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -20402,7 +20567,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="I42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J42" s="2">
         <v>45383</v>
@@ -20414,7 +20579,7 @@
         <v>2024</v>
       </c>
       <c r="M42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -20443,7 +20608,7 @@
         <v>9.1</v>
       </c>
       <c r="I43" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J43" s="2">
         <v>45413</v>
@@ -20455,7 +20620,7 @@
         <v>2024</v>
       </c>
       <c r="M43" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -20484,7 +20649,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="I44" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J44" s="2">
         <v>45444</v>
@@ -20496,7 +20661,7 @@
         <v>2024</v>
       </c>
       <c r="M44" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -20525,7 +20690,7 @@
         <v>7.7</v>
       </c>
       <c r="I45" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J45" s="2">
         <v>45474</v>
@@ -20537,7 +20702,7 @@
         <v>2024</v>
       </c>
       <c r="M45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -20566,7 +20731,7 @@
         <v>7.4</v>
       </c>
       <c r="I46" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J46" s="2">
         <v>45505</v>
@@ -20578,7 +20743,7 @@
         <v>2024</v>
       </c>
       <c r="M46" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -20607,7 +20772,7 @@
         <v>7.3</v>
       </c>
       <c r="I47" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J47" s="2">
         <v>45536</v>
@@ -20619,7 +20784,7 @@
         <v>2024</v>
       </c>
       <c r="M47" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -20648,7 +20813,7 @@
         <v>7.2</v>
       </c>
       <c r="I48" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J48" s="2">
         <v>45566</v>
@@ -20660,7 +20825,7 @@
         <v>2024</v>
       </c>
       <c r="M48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -20689,7 +20854,7 @@
         <v>7.2</v>
       </c>
       <c r="I49" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J49" s="2">
         <v>45597</v>
@@ -20701,7 +20866,7 @@
         <v>2024</v>
       </c>
       <c r="M49" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -20730,7 +20895,7 @@
         <v>7.3</v>
       </c>
       <c r="I50" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J50" s="2">
         <v>45627</v>
@@ -20742,7 +20907,7 @@
         <v>2024</v>
       </c>
       <c r="M50" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -20771,7 +20936,7 @@
         <v>7.5</v>
       </c>
       <c r="I51" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J51" s="2">
         <v>45658</v>
@@ -20783,7 +20948,7 @@
         <v>2025</v>
       </c>
       <c r="M51" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -20812,7 +20977,7 @@
         <v>7.5</v>
       </c>
       <c r="I52" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J52" s="2">
         <v>45689</v>
@@ -20824,7 +20989,7 @@
         <v>2025</v>
       </c>
       <c r="M52" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -20853,7 +21018,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="I53" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J53" s="2">
         <v>45717</v>
@@ -20865,7 +21030,7 @@
         <v>2025</v>
       </c>
       <c r="M53" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -20894,7 +21059,7 @@
         <v>7.6</v>
       </c>
       <c r="I54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J54" s="2">
         <v>45748</v>
@@ -20906,7 +21071,7 @@
         <v>2025</v>
       </c>
       <c r="M54" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -20935,7 +21100,7 @@
         <v>7.9</v>
       </c>
       <c r="I55" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J55" s="2">
         <v>45778</v>
@@ -20947,7 +21112,7 @@
         <v>2025</v>
       </c>
       <c r="M55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -20976,7 +21141,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="I56" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J56" s="2">
         <v>45809</v>
@@ -20988,7 +21153,7 @@
         <v>2025</v>
       </c>
       <c r="M56" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -21017,7 +21182,7 @@
         <v>8.6</v>
       </c>
       <c r="I57" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J57" s="2">
         <v>45839</v>
@@ -21029,7 +21194,7 @@
         <v>2025</v>
       </c>
       <c r="M57" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -21058,7 +21223,7 @@
         <v>9.1</v>
       </c>
       <c r="I58" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J58" s="2">
         <v>45870</v>
@@ -21070,7 +21235,7 @@
         <v>2025</v>
       </c>
       <c r="M58" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -21099,7 +21264,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="I59" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J59" s="2">
         <v>45901</v>
@@ -21111,7 +21276,7 @@
         <v>2025</v>
       </c>
       <c r="M59" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -21140,7 +21305,7 @@
         <v>10.1</v>
       </c>
       <c r="I60" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J60" s="2">
         <v>45931</v>
@@ -21152,7 +21317,7 @@
         <v>2025</v>
       </c>
       <c r="M60" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -21181,7 +21346,7 @@
         <v>10.3</v>
       </c>
       <c r="I61" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J61" s="2">
         <v>45962</v>
@@ -21193,56 +21358,56 @@
         <v>2025</v>
       </c>
       <c r="M61" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.96207169594373643</v>
+        <v>1.0364439441779021</v>
       </c>
       <c r="B62">
-        <v>-3.7928304056263569</v>
+        <v>3.6443944177902088</v>
       </c>
       <c r="C62">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D62">
-        <v>19.337424422271599</v>
+        <v>18.168561844655869</v>
       </c>
       <c r="E62">
-        <v>6.5729663936765563</v>
+        <v>13.628318673619001</v>
       </c>
       <c r="F62">
-        <v>1.4947277492212481</v>
+        <v>3.1972898165380741</v>
       </c>
       <c r="G62">
-        <v>-6.8</v>
+        <v>-2.9</v>
       </c>
       <c r="H62">
-        <v>-0.7</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I62" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J62" s="2">
-        <v>44531</v>
+        <v>45992</v>
       </c>
       <c r="K62">
         <v>12</v>
       </c>
       <c r="L62">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="M62" t="s">
-        <v>433</v>
+        <v>371</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0.9584767458792669</v>
+        <v>0.96207169594373643</v>
       </c>
       <c r="B63">
-        <v>-4.15232541207331</v>
+        <v>-3.7928304056263569</v>
       </c>
       <c r="C63">
         <v>33</v>
@@ -21251,28 +21416,28 @@
         <v>19.337424422271599</v>
       </c>
       <c r="E63">
-        <v>6.8564242911102804</v>
+        <v>6.5729663936765563</v>
       </c>
       <c r="F63">
-        <v>1.5591875927156109</v>
+        <v>1.4947277492212481</v>
       </c>
       <c r="G63">
-        <v>-7.3</v>
+        <v>-6.8</v>
       </c>
       <c r="H63">
-        <v>-1</v>
+        <v>-0.7</v>
       </c>
       <c r="I63" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J63" s="2">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L63">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M63" t="s">
         <v>433</v>
@@ -21280,10 +21445,10 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0.95623467305970444</v>
+        <v>0.9584767458792669</v>
       </c>
       <c r="B64">
-        <v>-4.3765326940295557</v>
+        <v>-4.15232541207331</v>
       </c>
       <c r="C64">
         <v>33</v>
@@ -21292,25 +21457,25 @@
         <v>19.337424422271599</v>
       </c>
       <c r="E64">
-        <v>7.1080610637743114</v>
+        <v>6.8564242911102804</v>
       </c>
       <c r="F64">
-        <v>1.6164111420688001</v>
+        <v>1.5591875927156109</v>
       </c>
       <c r="G64">
-        <v>-7.7</v>
+        <v>-7.3</v>
       </c>
       <c r="H64">
-        <v>-1.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="I64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J64" s="2">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L64">
         <v>2022</v>
@@ -21321,10 +21486,10 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.96967098630041737</v>
+        <v>0.95623467305970444</v>
       </c>
       <c r="B65">
-        <v>-3.032901369958263</v>
+        <v>-4.3765326940295557</v>
       </c>
       <c r="C65">
         <v>33</v>
@@ -21333,25 +21498,25 @@
         <v>19.337424422271599</v>
       </c>
       <c r="E65">
-        <v>7.2946243969252933</v>
+        <v>7.1080610637743114</v>
       </c>
       <c r="F65">
-        <v>1.65883664287712</v>
+        <v>1.6164111420688001</v>
       </c>
       <c r="G65">
-        <v>-6.4</v>
+        <v>-7.7</v>
       </c>
       <c r="H65">
-        <v>0.3</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="I65" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J65" s="2">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="K65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L65">
         <v>2022</v>
@@ -21362,37 +21527,37 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0.98314960505714111</v>
+        <v>0.96967098630041737</v>
       </c>
       <c r="B66">
-        <v>-1.6850394942858891</v>
+        <v>-3.032901369958263</v>
       </c>
       <c r="C66">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D66">
-        <v>18.99572897372909</v>
+        <v>19.337424422271599</v>
       </c>
       <c r="E66">
-        <v>7.3452258637017636</v>
+        <v>7.2946243969252933</v>
       </c>
       <c r="F66">
-        <v>1.6852998126063909</v>
+        <v>1.65883664287712</v>
       </c>
       <c r="G66">
-        <v>-5.0999999999999996</v>
+        <v>-6.4</v>
       </c>
       <c r="H66">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="I66" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J66" s="2">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="K66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L66">
         <v>2022</v>
@@ -21403,10 +21568,10 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0.99211704434259562</v>
+        <v>0.98314960505714111</v>
       </c>
       <c r="B67">
-        <v>-0.7882955657404378</v>
+        <v>-1.6850394942858891</v>
       </c>
       <c r="C67">
         <v>32</v>
@@ -21415,25 +21580,25 @@
         <v>18.99572897372909</v>
       </c>
       <c r="E67">
-        <v>7.7307868893566791</v>
+        <v>7.3452258637017636</v>
       </c>
       <c r="F67">
-        <v>1.773763521734198</v>
+        <v>1.6852998126063909</v>
       </c>
       <c r="G67">
-        <v>-4.4000000000000004</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="H67">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="I67" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J67" s="2">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="K67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L67">
         <v>2022</v>
@@ -21444,10 +21609,10 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.99492372613563573</v>
+        <v>0.99211704434259562</v>
       </c>
       <c r="B68">
-        <v>-0.50762738643642669</v>
+        <v>-0.7882955657404378</v>
       </c>
       <c r="C68">
         <v>32</v>
@@ -21456,25 +21621,25 @@
         <v>18.99572897372909</v>
       </c>
       <c r="E68">
-        <v>8.2498287820012379</v>
+        <v>7.7307868893566791</v>
       </c>
       <c r="F68">
-        <v>1.8928532843419741</v>
+        <v>1.773763521734198</v>
       </c>
       <c r="G68">
         <v>-4.4000000000000004</v>
       </c>
       <c r="H68">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="I68" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J68" s="2">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="K68">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L68">
         <v>2022</v>
@@ -21485,10 +21650,10 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.99264866394161277</v>
+        <v>0.99492372613563573</v>
       </c>
       <c r="B69">
-        <v>-0.73513360583872256</v>
+        <v>-0.50762738643642669</v>
       </c>
       <c r="C69">
         <v>32</v>
@@ -21497,25 +21662,25 @@
         <v>18.99572897372909</v>
       </c>
       <c r="E69">
-        <v>8.696961507495244</v>
+        <v>8.2498287820012379</v>
       </c>
       <c r="F69">
-        <v>1.9954440980852379</v>
+        <v>1.8928532843419741</v>
       </c>
       <c r="G69">
-        <v>-4.8</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="H69">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I69" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J69" s="2">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="K69">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L69">
         <v>2022</v>
@@ -21526,10 +21691,10 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0.99622510648929574</v>
+        <v>0.99264866394161277</v>
       </c>
       <c r="B70">
-        <v>-0.3774893510704258</v>
+        <v>-0.73513360583872256</v>
       </c>
       <c r="C70">
         <v>32</v>
@@ -21538,25 +21703,25 @@
         <v>18.99572897372909</v>
       </c>
       <c r="E70">
-        <v>9.0620825329680272</v>
+        <v>8.696961507495244</v>
       </c>
       <c r="F70">
-        <v>2.0792180224309531</v>
+        <v>1.9954440980852379</v>
       </c>
       <c r="G70">
-        <v>-4.5999999999999996</v>
+        <v>-4.8</v>
       </c>
       <c r="H70">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="I70" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J70" s="2">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="K70">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L70">
         <v>2022</v>
@@ -21567,10 +21732,10 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0.9975049879886283</v>
+        <v>0.99622510648929574</v>
       </c>
       <c r="B71">
-        <v>-0.24950120113717</v>
+        <v>-0.3774893510704258</v>
       </c>
       <c r="C71">
         <v>32</v>
@@ -21579,25 +21744,25 @@
         <v>18.99572897372909</v>
       </c>
       <c r="E71">
-        <v>9.4662779911143087</v>
+        <v>9.0620825329680272</v>
       </c>
       <c r="F71">
-        <v>2.171957244139104</v>
+        <v>2.0792180224309531</v>
       </c>
       <c r="G71">
-        <v>-4.7</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="H71">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I71" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J71" s="2">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="K71">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L71">
         <v>2022</v>
@@ -21608,10 +21773,10 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0.99780749849508021</v>
+        <v>0.9975049879886283</v>
       </c>
       <c r="B72">
-        <v>-0.2192501504919786</v>
+        <v>-0.24950120113717</v>
       </c>
       <c r="C72">
         <v>32</v>
@@ -21620,25 +21785,25 @@
         <v>18.99572897372909</v>
       </c>
       <c r="E72">
-        <v>9.861193498544198</v>
+        <v>9.4662779911143087</v>
       </c>
       <c r="F72">
-        <v>2.2625672598168971</v>
+        <v>2.171957244139104</v>
       </c>
       <c r="G72">
-        <v>-4.8</v>
+        <v>-4.7</v>
       </c>
       <c r="H72">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="I72" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J72" s="2">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="K72">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L72">
         <v>2022</v>
@@ -21649,10 +21814,10 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1.002827544586588</v>
+        <v>0.99780749849508021</v>
       </c>
       <c r="B73">
-        <v>0.28275445865884041</v>
+        <v>-0.2192501504919786</v>
       </c>
       <c r="C73">
         <v>32</v>
@@ -21661,25 +21826,25 @@
         <v>18.99572897372909</v>
       </c>
       <c r="E73">
-        <v>10.29478373440373</v>
+        <v>9.861193498544198</v>
       </c>
       <c r="F73">
-        <v>2.3620508641064668</v>
+        <v>2.2625672598168971</v>
       </c>
       <c r="G73">
-        <v>-4.5</v>
+        <v>-4.8</v>
       </c>
       <c r="H73">
-        <v>5.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I73" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J73" s="2">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="K73">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L73">
         <v>2022</v>
@@ -21690,37 +21855,37 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0.99948637435896082</v>
+        <v>1.002827544586588</v>
       </c>
       <c r="B74">
-        <v>-5.1362564103918373E-2</v>
+        <v>0.28275445865884041</v>
       </c>
       <c r="C74">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D74">
-        <v>21.753475225948449</v>
+        <v>18.99572897372909</v>
       </c>
       <c r="E74">
-        <v>11.35275219731734</v>
+        <v>10.29478373440373</v>
       </c>
       <c r="F74">
-        <v>2.434091134743976</v>
+        <v>2.3620508641064668</v>
       </c>
       <c r="G74">
-        <v>-5</v>
+        <v>-4.5</v>
       </c>
       <c r="H74">
-        <v>4.9000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I74" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J74" s="2">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="K74">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L74">
         <v>2022</v>
@@ -21731,10 +21896,10 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1.0084092225514021</v>
+        <v>0.99948637435896082</v>
       </c>
       <c r="B75">
-        <v>0.84092225514016405</v>
+        <v>-5.1362564103918373E-2</v>
       </c>
       <c r="C75">
         <v>31</v>
@@ -21743,28 +21908,28 @@
         <v>21.753475225948449</v>
       </c>
       <c r="E75">
-        <v>11.84406842320638</v>
+        <v>11.35275219731734</v>
       </c>
       <c r="F75">
-        <v>2.5394319762427431</v>
+        <v>2.434091134743976</v>
       </c>
       <c r="G75">
-        <v>-4.3</v>
+        <v>-5</v>
       </c>
       <c r="H75">
-        <v>6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I75" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J75" s="2">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L75">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M75" t="s">
         <v>433</v>
@@ -21772,37 +21937,37 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1.015064545218932</v>
+        <v>1.0084092225514021</v>
       </c>
       <c r="B76">
-        <v>1.5064545218931751</v>
+        <v>0.84092225514016405</v>
       </c>
       <c r="C76">
         <v>31</v>
       </c>
       <c r="D76">
-        <v>21.633075473219431</v>
+        <v>21.753475225948449</v>
       </c>
       <c r="E76">
-        <v>12.297003170968541</v>
+        <v>11.84406842320638</v>
       </c>
       <c r="F76">
-        <v>2.6438703371031882</v>
+        <v>2.5394319762427431</v>
       </c>
       <c r="G76">
-        <v>-3.9</v>
+        <v>-4.3</v>
       </c>
       <c r="H76">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J76" s="2">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L76">
         <v>2023</v>
@@ -21813,10 +21978,10 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1.0199159397341271</v>
+        <v>1.015064545218932</v>
       </c>
       <c r="B77">
-        <v>1.991593973412664</v>
+        <v>1.5064545218931751</v>
       </c>
       <c r="C77">
         <v>31</v>
@@ -21825,25 +21990,25 @@
         <v>21.633075473219431</v>
       </c>
       <c r="E77">
-        <v>12.6993882343256</v>
+        <v>12.297003170968541</v>
       </c>
       <c r="F77">
-        <v>2.7303836052801631</v>
+        <v>2.6438703371031882</v>
       </c>
       <c r="G77">
-        <v>-3.6</v>
+        <v>-3.9</v>
       </c>
       <c r="H77">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="I77" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J77" s="2">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="K77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L77">
         <v>2023</v>
@@ -21854,10 +22019,10 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1.020389170746602</v>
+        <v>1.0199159397341271</v>
       </c>
       <c r="B78">
-        <v>2.038917074660151</v>
+        <v>1.991593973412664</v>
       </c>
       <c r="C78">
         <v>31</v>
@@ -21866,25 +22031,25 @@
         <v>21.633075473219431</v>
       </c>
       <c r="E78">
-        <v>13.010751075673729</v>
+        <v>12.6993882343256</v>
       </c>
       <c r="F78">
-        <v>2.797326987246588</v>
+        <v>2.7303836052801631</v>
       </c>
       <c r="G78">
-        <v>-3.7</v>
+        <v>-3.6</v>
       </c>
       <c r="H78">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="I78" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J78" s="2">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="K78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L78">
         <v>2023</v>
@@ -21895,37 +22060,37 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1.0282985826231039</v>
+        <v>1.020389170746602</v>
       </c>
       <c r="B79">
-        <v>2.8298582623103701</v>
+        <v>2.038917074660151</v>
       </c>
       <c r="C79">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D79">
-        <v>20.93488312862889</v>
+        <v>21.633075473219431</v>
       </c>
       <c r="E79">
-        <v>13.212893890374691</v>
+        <v>13.010751075673729</v>
       </c>
       <c r="F79">
-        <v>2.88777050909819</v>
+        <v>2.797326987246588</v>
       </c>
       <c r="G79">
-        <v>-3.1</v>
+        <v>-3.7</v>
       </c>
       <c r="H79">
-        <v>8.6999999999999993</v>
+        <v>7.8</v>
       </c>
       <c r="I79" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J79" s="2">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="K79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L79">
         <v>2023</v>
@@ -21936,10 +22101,10 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1.033360016995347</v>
+        <v>1.0282985826231039</v>
       </c>
       <c r="B80">
-        <v>3.336001699534719</v>
+        <v>2.8298582623103701</v>
       </c>
       <c r="C80">
         <v>30</v>
@@ -21948,25 +22113,25 @@
         <v>20.93488312862889</v>
       </c>
       <c r="E80">
-        <v>13.267231602005291</v>
+        <v>13.212893890374691</v>
       </c>
       <c r="F80">
-        <v>2.8996463965820851</v>
+        <v>2.88777050909819</v>
       </c>
       <c r="G80">
-        <v>-2.6</v>
+        <v>-3.1</v>
       </c>
       <c r="H80">
-        <v>9.3000000000000007</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I80" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J80" s="2">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="K80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L80">
         <v>2023</v>
@@ -21977,10 +22142,10 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1.031839985059567</v>
+        <v>1.033360016995347</v>
       </c>
       <c r="B81">
-        <v>3.183998505956676</v>
+        <v>3.336001699534719</v>
       </c>
       <c r="C81">
         <v>30</v>
@@ -21989,25 +22154,25 @@
         <v>20.93488312862889</v>
       </c>
       <c r="E81">
-        <v>13.24170442730207</v>
+        <v>13.267231602005291</v>
       </c>
       <c r="F81">
-        <v>2.894067253746293</v>
+        <v>2.8996463965820851</v>
       </c>
       <c r="G81">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="H81">
-        <v>9.1</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I81" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J81" s="2">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="K81">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L81">
         <v>2023</v>
@@ -22018,10 +22183,10 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1.0328935817482541</v>
+        <v>1.031839985059567</v>
       </c>
       <c r="B82">
-        <v>3.2893581748254301</v>
+        <v>3.183998505956676</v>
       </c>
       <c r="C82">
         <v>30</v>
@@ -22030,25 +22195,25 @@
         <v>20.93488312862889</v>
       </c>
       <c r="E82">
-        <v>13.618023969837679</v>
+        <v>13.24170442730207</v>
       </c>
       <c r="F82">
-        <v>2.976314525687477</v>
+        <v>2.894067253746293</v>
       </c>
       <c r="G82">
-        <v>-2.8</v>
+        <v>-2.7</v>
       </c>
       <c r="H82">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="I82" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J82" s="2">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="K82">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L82">
         <v>2023</v>
@@ -22059,10 +22224,10 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1.0349462292480129</v>
+        <v>1.0328935817482541</v>
       </c>
       <c r="B83">
-        <v>3.4946229248013161</v>
+        <v>3.2893581748254301</v>
       </c>
       <c r="C83">
         <v>30</v>
@@ -22071,25 +22236,25 @@
         <v>20.93488312862889</v>
       </c>
       <c r="E83">
-        <v>14.12095938059085</v>
+        <v>13.618023969837679</v>
       </c>
       <c r="F83">
-        <v>3.086234582505023</v>
+        <v>2.976314525687477</v>
       </c>
       <c r="G83">
         <v>-2.8</v>
       </c>
       <c r="H83">
-        <v>9.8000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="I83" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J83" s="2">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="K83">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L83">
         <v>2023</v>
@@ -22100,10 +22265,10 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1.034597951552986</v>
+        <v>1.0349462292480129</v>
       </c>
       <c r="B84">
-        <v>3.4597951552986168</v>
+        <v>3.4946229248013161</v>
       </c>
       <c r="C84">
         <v>30</v>
@@ -22112,25 +22277,25 @@
         <v>20.93488312862889</v>
       </c>
       <c r="E84">
-        <v>14.547089355302431</v>
+        <v>14.12095938059085</v>
       </c>
       <c r="F84">
-        <v>3.1793682732940858</v>
+        <v>3.086234582505023</v>
       </c>
       <c r="G84">
-        <v>-3</v>
+        <v>-2.8</v>
       </c>
       <c r="H84">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I84" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J84" s="2">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="K84">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L84">
         <v>2023</v>
@@ -22141,37 +22306,37 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1.05360188334448</v>
+        <v>1.034597951552986</v>
       </c>
       <c r="B85">
-        <v>5.3601883344480461</v>
+        <v>3.4597951552986168</v>
       </c>
       <c r="C85">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D85">
-        <v>19.115832380573561</v>
+        <v>20.93488312862889</v>
       </c>
       <c r="E85">
-        <v>10.24802034867216</v>
+        <v>14.547089355302431</v>
       </c>
       <c r="F85">
-        <v>2.343923170642384</v>
+        <v>3.1793682732940858</v>
       </c>
       <c r="G85">
-        <v>0.6</v>
+        <v>-3</v>
       </c>
       <c r="H85">
-        <v>10.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="I85" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J85" s="2">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="K85">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L85">
         <v>2023</v>
@@ -22182,10 +22347,10 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1.0546279856219181</v>
+        <v>1.05360188334448</v>
       </c>
       <c r="B86">
-        <v>5.4627985621918276</v>
+        <v>5.3601883344480461</v>
       </c>
       <c r="C86">
         <v>28</v>
@@ -22194,25 +22359,25 @@
         <v>19.115832380573561</v>
       </c>
       <c r="E86">
-        <v>10.24493765100048</v>
+        <v>10.24802034867216</v>
       </c>
       <c r="F86">
-        <v>2.3432180972472412</v>
+        <v>2.343923170642384</v>
       </c>
       <c r="G86">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H86">
-        <v>10.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I86" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J86" s="2">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="K86">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L86">
         <v>2023</v>
@@ -22223,10 +22388,10 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1.0583104067237841</v>
+        <v>1.0546279856219181</v>
       </c>
       <c r="B87">
-        <v>5.8310406723783634</v>
+        <v>5.4627985621918276</v>
       </c>
       <c r="C87">
         <v>28</v>
@@ -22235,28 +22400,28 @@
         <v>19.115832380573561</v>
       </c>
       <c r="E87">
-        <v>10.03569929372812</v>
+        <v>10.24493765100048</v>
       </c>
       <c r="F87">
-        <v>2.295361182729954</v>
+        <v>2.3432180972472412</v>
       </c>
       <c r="G87">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="H87">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="I87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J87" s="2">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L87">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M87" t="s">
         <v>433</v>
@@ -22264,10 +22429,10 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1.060214055930764</v>
+        <v>1.0583104067237841</v>
       </c>
       <c r="B88">
-        <v>6.021405593076401</v>
+        <v>5.8310406723783634</v>
       </c>
       <c r="C88">
         <v>28</v>
@@ -22276,25 +22441,25 @@
         <v>19.115832380573561</v>
       </c>
       <c r="E88">
-        <v>9.8246443176388158</v>
+        <v>10.03569929372812</v>
       </c>
       <c r="F88">
-        <v>2.247088771873627</v>
+        <v>2.295361182729954</v>
       </c>
       <c r="G88">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H88">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="I88" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J88" s="2">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="K88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L88">
         <v>2024</v>
@@ -22305,10 +22470,10 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1.054583062225229</v>
+        <v>1.060214055930764</v>
       </c>
       <c r="B89">
-        <v>5.458306222522924</v>
+        <v>6.021405593076401</v>
       </c>
       <c r="C89">
         <v>28</v>
@@ -22317,25 +22482,25 @@
         <v>19.115832380573561</v>
       </c>
       <c r="E89">
-        <v>9.6179966202026375</v>
+        <v>9.8246443176388158</v>
       </c>
       <c r="F89">
-        <v>2.199824392051887</v>
+        <v>2.247088771873627</v>
       </c>
       <c r="G89">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H89">
-        <v>10</v>
+        <v>10.6</v>
       </c>
       <c r="I89" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J89" s="2">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="K89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L89">
         <v>2024</v>
@@ -22346,10 +22511,10 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1.058171582075532</v>
+        <v>1.054583062225229</v>
       </c>
       <c r="B90">
-        <v>5.8171582075532191</v>
+        <v>5.458306222522924</v>
       </c>
       <c r="C90">
         <v>28</v>
@@ -22358,25 +22523,25 @@
         <v>19.115832380573561</v>
       </c>
       <c r="E90">
-        <v>9.4403327718013941</v>
+        <v>9.6179966202026375</v>
       </c>
       <c r="F90">
-        <v>2.1591891867454178</v>
+        <v>2.199824392051887</v>
       </c>
       <c r="G90">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H90">
-        <v>10.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="I90" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J90" s="2">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="K90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L90">
         <v>2024</v>
@@ -22387,37 +22552,37 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1.0529610542018479</v>
+        <v>1.058171582075532</v>
       </c>
       <c r="B91">
-        <v>5.2961054201848379</v>
+        <v>5.8171582075532191</v>
       </c>
       <c r="C91">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D91">
-        <v>20.113775177173739</v>
+        <v>19.115832380573561</v>
       </c>
       <c r="E91">
-        <v>9.2109062111873534</v>
+        <v>9.4403327718013941</v>
       </c>
       <c r="F91">
-        <v>2.0537877750908309</v>
+        <v>2.1591891867454178</v>
       </c>
       <c r="G91">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H91">
-        <v>9.5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I91" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J91" s="2">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="K91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L91">
         <v>2024</v>
@@ -22428,10 +22593,10 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1.0518682167925639</v>
+        <v>1.0529610542018479</v>
       </c>
       <c r="B92">
-        <v>5.1868216792563704</v>
+        <v>5.2961054201848379</v>
       </c>
       <c r="C92">
         <v>29</v>
@@ -22440,25 +22605,25 @@
         <v>20.113775177173739</v>
       </c>
       <c r="E92">
-        <v>9.0397689630755789</v>
+        <v>9.2109062111873534</v>
       </c>
       <c r="F92">
-        <v>2.0156287080049289</v>
+        <v>2.0537877750908309</v>
       </c>
       <c r="G92">
         <v>1.1000000000000001</v>
       </c>
       <c r="H92">
-        <v>9.3000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="I92" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J92" s="2">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="K92">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L92">
         <v>2024</v>
@@ -22469,10 +22634,10 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1.053490836208443</v>
+        <v>1.0518682167925639</v>
       </c>
       <c r="B93">
-        <v>5.3490836208442749</v>
+        <v>5.1868216792563704</v>
       </c>
       <c r="C93">
         <v>29</v>
@@ -22481,25 +22646,25 @@
         <v>20.113775177173739</v>
       </c>
       <c r="E93">
-        <v>8.9122858934584244</v>
+        <v>9.0397689630755789</v>
       </c>
       <c r="F93">
-        <v>1.9872033648402401</v>
+        <v>2.0156287080049289</v>
       </c>
       <c r="G93">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H93">
-        <v>9.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I93" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J93" s="2">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="K93">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L93">
         <v>2024</v>
@@ -22510,37 +22675,37 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1.049558469047905</v>
+        <v>1.053490836208443</v>
       </c>
       <c r="B94">
-        <v>4.9558469047905396</v>
+        <v>5.3490836208442749</v>
       </c>
       <c r="C94">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D94">
-        <v>18.54899679651448</v>
+        <v>20.113775177173739</v>
       </c>
       <c r="E94">
-        <v>8.2881094746272126</v>
+        <v>8.9122858934584244</v>
       </c>
       <c r="F94">
-        <v>1.924399634609663</v>
+        <v>1.9872033648402401</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H94">
-        <v>8.9</v>
+        <v>9.4</v>
       </c>
       <c r="I94" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J94" s="2">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="K94">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L94">
         <v>2024</v>
@@ -22551,10 +22716,10 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1.048290941446286</v>
+        <v>1.049558469047905</v>
       </c>
       <c r="B95">
-        <v>4.8290941446285984</v>
+        <v>4.9558469047905396</v>
       </c>
       <c r="C95">
         <v>30</v>
@@ -22563,25 +22728,25 @@
         <v>18.54899679651448</v>
       </c>
       <c r="E95">
-        <v>8.1695058802911475</v>
+        <v>8.2881094746272126</v>
       </c>
       <c r="F95">
-        <v>1.8968613022188521</v>
+        <v>1.924399634609663</v>
       </c>
       <c r="G95">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>8.6999999999999993</v>
+        <v>8.9</v>
       </c>
       <c r="I95" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J95" s="2">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="K95">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L95">
         <v>2024</v>
@@ -22592,10 +22757,10 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1.0492600557866141</v>
+        <v>1.048290941446286</v>
       </c>
       <c r="B96">
-        <v>4.9260055786613854</v>
+        <v>4.8290941446285984</v>
       </c>
       <c r="C96">
         <v>30</v>
@@ -22604,25 +22769,25 @@
         <v>18.54899679651448</v>
       </c>
       <c r="E96">
-        <v>8.1060104134661213</v>
+        <v>8.1695058802911475</v>
       </c>
       <c r="F96">
-        <v>1.882118416216741</v>
+        <v>1.8968613022188521</v>
       </c>
       <c r="G96">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H96">
-        <v>8.8000000000000007</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I96" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J96" s="2">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="K96">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L96">
         <v>2024</v>
@@ -22633,37 +22798,37 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1.048336726448585</v>
+        <v>1.0492600557866141</v>
       </c>
       <c r="B97">
-        <v>4.8336726448585221</v>
+        <v>4.9260055786613854</v>
       </c>
       <c r="C97">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D97">
-        <v>16.984798015414359</v>
+        <v>18.54899679651448</v>
       </c>
       <c r="E97">
-        <v>7.500807113317558</v>
+        <v>8.1060104134661213</v>
       </c>
       <c r="F97">
-        <v>1.8200268888260469</v>
+        <v>1.882118416216741</v>
       </c>
       <c r="G97">
         <v>1.1000000000000001</v>
       </c>
       <c r="H97">
-        <v>8.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I97" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J97" s="2">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="K97">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L97">
         <v>2024</v>
@@ -22674,10 +22839,10 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1.047960491035139</v>
+        <v>1.048336726448585</v>
       </c>
       <c r="B98">
-        <v>4.7960491035138553</v>
+        <v>4.8336726448585221</v>
       </c>
       <c r="C98">
         <v>31</v>
@@ -22686,25 +22851,25 @@
         <v>16.984798015414359</v>
       </c>
       <c r="E98">
-        <v>7.448935948276743</v>
+        <v>7.500807113317558</v>
       </c>
       <c r="F98">
-        <v>1.807440654611145</v>
+        <v>1.8200268888260469</v>
       </c>
       <c r="G98">
         <v>1.1000000000000001</v>
       </c>
       <c r="H98">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="I98" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J98" s="2">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="K98">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L98">
         <v>2024</v>
@@ -22715,10 +22880,10 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1.0466636254000761</v>
+        <v>1.047960491035139</v>
       </c>
       <c r="B99">
-        <v>4.666362540007607</v>
+        <v>4.7960491035138553</v>
       </c>
       <c r="C99">
         <v>31</v>
@@ -22727,28 +22892,28 @@
         <v>16.984798015414359</v>
       </c>
       <c r="E99">
-        <v>7.4257723047663147</v>
+        <v>7.448935948276743</v>
       </c>
       <c r="F99">
-        <v>1.8018201322599821</v>
+        <v>1.807440654611145</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H99">
-        <v>8.3000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="I99" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J99" s="2">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L99">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M99" t="s">
         <v>433</v>
@@ -22756,37 +22921,37 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1.049197317673384</v>
+        <v>1.0466636254000761</v>
       </c>
       <c r="B100">
-        <v>4.91973176733842</v>
+        <v>4.666362540007607</v>
       </c>
       <c r="C100">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D100">
-        <v>16.566424582675928</v>
+        <v>16.984798015414359</v>
       </c>
       <c r="E100">
-        <v>7.23581369305899</v>
+        <v>7.4257723047663147</v>
       </c>
       <c r="F100">
-        <v>1.777759394342423</v>
+        <v>1.8018201322599821</v>
       </c>
       <c r="G100">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H100">
-        <v>8.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I100" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J100" s="2">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L100">
         <v>2025</v>
@@ -22797,37 +22962,37 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1.047065673072646</v>
+        <v>1.049197317673384</v>
       </c>
       <c r="B101">
-        <v>4.7065673072645966</v>
+        <v>4.91973176733842</v>
       </c>
       <c r="C101">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D101">
-        <v>16.275613713673671</v>
+        <v>16.566424582675928</v>
       </c>
       <c r="E101">
-        <v>7.2776002956687886</v>
+        <v>7.23581369305899</v>
       </c>
       <c r="F101">
-        <v>1.8039292996126619</v>
+        <v>1.777759394342423</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H101">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I101" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J101" s="2">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="K101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L101">
         <v>2025</v>
@@ -22838,37 +23003,37 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1.0499072887832079</v>
+        <v>1.047065673072646</v>
       </c>
       <c r="B102">
-        <v>4.9907288783208159</v>
+        <v>4.7065673072645966</v>
       </c>
       <c r="C102">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D102">
-        <v>16.298686100020131</v>
+        <v>16.275613713673671</v>
       </c>
       <c r="E102">
-        <v>7.8325390856235746</v>
+        <v>7.2776002956687886</v>
       </c>
       <c r="F102">
-        <v>1.9401096370373889</v>
+        <v>1.8039292996126619</v>
       </c>
       <c r="G102">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="I102" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J102" s="2">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="K102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L102">
         <v>2025</v>
@@ -22879,10 +23044,10 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1.0491555040149549</v>
+        <v>1.0499072887832079</v>
       </c>
       <c r="B103">
-        <v>4.9155504014955156</v>
+        <v>4.9907288783208159</v>
       </c>
       <c r="C103">
         <v>28</v>
@@ -22891,25 +23056,25 @@
         <v>16.298686100020131</v>
       </c>
       <c r="E103">
-        <v>8.0005290532800153</v>
+        <v>7.8325390856235746</v>
       </c>
       <c r="F103">
-        <v>1.9817205312331261</v>
+        <v>1.9401096370373889</v>
       </c>
       <c r="G103">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>9</v>
       </c>
       <c r="I103" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J103" s="2">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="K103">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L103">
         <v>2025</v>
@@ -22920,10 +23085,10 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1.046409036152032</v>
+        <v>1.0491555040149549</v>
       </c>
       <c r="B104">
-        <v>4.6409036152031957</v>
+        <v>4.9155504014955156</v>
       </c>
       <c r="C104">
         <v>28</v>
@@ -22932,25 +23097,25 @@
         <v>16.298686100020131</v>
       </c>
       <c r="E104">
-        <v>8.2013529230358095</v>
+        <v>8.0005290532800153</v>
       </c>
       <c r="F104">
-        <v>2.031464339824582</v>
+        <v>1.9817205312331261</v>
       </c>
       <c r="G104">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H104">
-        <v>8.8000000000000007</v>
+        <v>9</v>
       </c>
       <c r="I104" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J104" s="2">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="K104">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L104">
         <v>2025</v>
@@ -22961,37 +23126,37 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1.0436198204458811</v>
+        <v>1.046409036152032</v>
       </c>
       <c r="B105">
-        <v>4.3619820445881308</v>
+        <v>4.6409036152031957</v>
       </c>
       <c r="C105">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D105">
-        <v>17.214158003813509</v>
+        <v>16.298686100020131</v>
       </c>
       <c r="E105">
-        <v>8.3198053811383907</v>
+        <v>8.2013529230358095</v>
       </c>
       <c r="F105">
-        <v>2.0052580793959169</v>
+        <v>2.031464339824582</v>
       </c>
       <c r="G105">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H105">
-        <v>8.5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I105" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J105" s="2">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="K105">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L105">
         <v>2025</v>
@@ -23002,37 +23167,37 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1.04191337675469</v>
+        <v>1.0436198204458811</v>
       </c>
       <c r="B106">
-        <v>4.1913376754689544</v>
+        <v>4.3619820445881308</v>
       </c>
       <c r="C106">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D106">
-        <v>17.981760321027519</v>
+        <v>17.214158003813509</v>
       </c>
       <c r="E106">
-        <v>8.4258716731015681</v>
+        <v>8.3198053811383907</v>
       </c>
       <c r="F106">
-        <v>1.9870039852828121</v>
+        <v>2.0052580793959169</v>
       </c>
       <c r="G106">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H106">
-        <v>8.3000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="I106" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J106" s="2">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="K106">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L106">
         <v>2025</v>
@@ -23043,37 +23208,37 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1.042902221618236</v>
+        <v>1.04191337675469</v>
       </c>
       <c r="B107">
-        <v>4.2902221618235536</v>
+        <v>4.1913376754689544</v>
       </c>
       <c r="C107">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D107">
-        <v>16.78590967293264</v>
+        <v>17.981760321027519</v>
       </c>
       <c r="E107">
-        <v>8.9086299542953977</v>
+        <v>8.4258716731015681</v>
       </c>
       <c r="F107">
-        <v>2.1743951902750132</v>
+        <v>1.9870039852828121</v>
       </c>
       <c r="G107">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H107">
-        <v>8.8000000000000007</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I107" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J107" s="2">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="K107">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L107">
         <v>2025</v>
@@ -23084,10 +23249,10 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1.043161169864792</v>
+        <v>1.042902221618236</v>
       </c>
       <c r="B108">
-        <v>4.3161169864792237</v>
+        <v>4.2902221618235536</v>
       </c>
       <c r="C108">
         <v>28</v>
@@ -23096,25 +23261,25 @@
         <v>16.78590967293264</v>
       </c>
       <c r="E108">
-        <v>9.2046227950215815</v>
+        <v>8.9086299542953977</v>
       </c>
       <c r="F108">
-        <v>2.246640351712045</v>
+        <v>2.1743951902750132</v>
       </c>
       <c r="G108">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="H108">
-        <v>8.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I108" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J108" s="2">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="K108">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L108">
         <v>2025</v>
@@ -23125,37 +23290,37 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1.0458444331058141</v>
+        <v>1.043161169864792</v>
       </c>
       <c r="B109">
-        <v>4.5844433105814097</v>
+        <v>4.3161169864792237</v>
       </c>
       <c r="C109">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109">
-        <v>15.87606042226448</v>
+        <v>16.78590967293264</v>
       </c>
       <c r="E109">
-        <v>9.5062847480203541</v>
+        <v>9.2046227950215815</v>
       </c>
       <c r="F109">
-        <v>2.3858297368782901</v>
+        <v>2.246640351712045</v>
       </c>
       <c r="G109">
         <v>-0.3</v>
       </c>
       <c r="H109">
-        <v>9.5</v>
+        <v>8.9</v>
       </c>
       <c r="I109" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J109" s="2">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="K109">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L109">
         <v>2025</v>
@@ -23166,215 +23331,215 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>0.98384460746823565</v>
+        <v>1.0458444331058141</v>
       </c>
       <c r="B110">
-        <v>-1.615539253176435</v>
+        <v>4.5844433105814097</v>
       </c>
       <c r="C110">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D110">
-        <v>18.99572897372909</v>
+        <v>15.87606042226448</v>
       </c>
       <c r="E110">
-        <v>7.9644924766193963</v>
+        <v>9.5062847480203541</v>
       </c>
       <c r="F110">
-        <v>1.8273852877258061</v>
+        <v>2.3858297368782901</v>
       </c>
       <c r="G110">
-        <v>-5.3</v>
+        <v>-0.3</v>
       </c>
       <c r="H110">
-        <v>2.1</v>
+        <v>9.5</v>
       </c>
       <c r="I110" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J110" s="2">
-        <v>44896</v>
+        <v>45962</v>
       </c>
       <c r="K110">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L110">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="M110" t="s">
-        <v>482</v>
+        <v>433</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>0.98003625973454445</v>
+        <v>1.0475207882271611</v>
       </c>
       <c r="B111">
-        <v>-1.996374026545555</v>
+        <v>4.7520788227160882</v>
       </c>
       <c r="C111">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D111">
-        <v>21.753475225948449</v>
+        <v>15.87606042226448</v>
       </c>
       <c r="E111">
-        <v>8.7655286035774989</v>
+        <v>9.6849617354942694</v>
       </c>
       <c r="F111">
-        <v>1.879376480211949</v>
+        <v>2.430673004391382</v>
       </c>
       <c r="G111">
-        <v>-5.8</v>
+        <v>-0.2</v>
       </c>
       <c r="H111">
-        <v>1.8</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I111" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J111" s="2">
-        <v>44927</v>
+        <v>45992</v>
       </c>
       <c r="K111">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L111">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="M111" t="s">
-        <v>482</v>
+        <v>433</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>0.98029969144219087</v>
+        <v>0.98384460746823565</v>
       </c>
       <c r="B112">
-        <v>-1.970030855780913</v>
+        <v>-1.615539253176435</v>
       </c>
       <c r="C112">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D112">
-        <v>21.753475225948449</v>
+        <v>18.99572897372909</v>
       </c>
       <c r="E112">
-        <v>9.0800430922656066</v>
+        <v>7.9644924766193963</v>
       </c>
       <c r="F112">
-        <v>1.9468100782821289</v>
+        <v>1.8273852877258061</v>
       </c>
       <c r="G112">
-        <v>-5.9</v>
+        <v>-5.3</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I112" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="J112" s="2">
-        <v>44958</v>
+        <v>44896</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L112">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M112" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>0.99149462050725556</v>
+        <v>0.98003625973454445</v>
       </c>
       <c r="B113">
-        <v>-0.85053794927444359</v>
+        <v>-1.996374026545555</v>
       </c>
       <c r="C113">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D113">
-        <v>20.93488312862889</v>
+        <v>21.753475225948449</v>
       </c>
       <c r="E113">
-        <v>9.3654971767244142</v>
+        <v>8.7655286035774989</v>
       </c>
       <c r="F113">
-        <v>2.0468950083440181</v>
+        <v>1.879376480211949</v>
       </c>
       <c r="G113">
-        <v>-5</v>
+        <v>-5.8</v>
       </c>
       <c r="H113">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="I113" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J113" s="2">
-        <v>44986</v>
+        <v>44927</v>
       </c>
       <c r="K113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L113">
         <v>2023</v>
       </c>
       <c r="M113" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>0.99872076570122992</v>
+        <v>0.98029969144219087</v>
       </c>
       <c r="B114">
-        <v>-0.12792342987700819</v>
+        <v>-1.970030855780913</v>
       </c>
       <c r="C114">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D114">
-        <v>20.93488312862889</v>
+        <v>21.753475225948449</v>
       </c>
       <c r="E114">
-        <v>9.6014446674081917</v>
+        <v>9.0800430922656066</v>
       </c>
       <c r="F114">
-        <v>2.0984629851207548</v>
+        <v>1.9468100782821289</v>
       </c>
       <c r="G114">
-        <v>-4.4000000000000004</v>
+        <v>-5.9</v>
       </c>
       <c r="H114">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J114" s="2">
-        <v>45017</v>
+        <v>44958</v>
       </c>
       <c r="K114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L114">
         <v>2023</v>
       </c>
       <c r="M114" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1.0044133306297109</v>
+        <v>0.99149462050725556</v>
       </c>
       <c r="B115">
-        <v>0.44133306297111652</v>
+        <v>-0.85053794927444359</v>
       </c>
       <c r="C115">
         <v>30</v>
@@ -23383,39 +23548,39 @@
         <v>20.93488312862889</v>
       </c>
       <c r="E115">
-        <v>9.9851560334364926</v>
+        <v>9.3654971767244142</v>
       </c>
       <c r="F115">
-        <v>2.1823257918620929</v>
+        <v>2.0468950083440181</v>
       </c>
       <c r="G115">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H115">
-        <v>4.9000000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="I115" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J115" s="2">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="K115">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L115">
         <v>2023</v>
       </c>
       <c r="M115" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1.0075035585770851</v>
+        <v>0.99872076570122992</v>
       </c>
       <c r="B116">
-        <v>0.75035585770848456</v>
+        <v>-0.12792342987700819</v>
       </c>
       <c r="C116">
         <v>30</v>
@@ -23424,39 +23589,39 @@
         <v>20.93488312862889</v>
       </c>
       <c r="E116">
-        <v>10.42868041952279</v>
+        <v>9.6014446674081917</v>
       </c>
       <c r="F116">
-        <v>2.2792611530957831</v>
+        <v>2.0984629851207548</v>
       </c>
       <c r="G116">
-        <v>-3.9</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="H116">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="I116" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J116" s="2">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="K116">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L116">
         <v>2023</v>
       </c>
       <c r="M116" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1.007997804758505</v>
+        <v>1.0044133306297109</v>
       </c>
       <c r="B117">
-        <v>0.79978047585049783</v>
+        <v>0.44133306297111652</v>
       </c>
       <c r="C117">
         <v>30</v>
@@ -23465,121 +23630,121 @@
         <v>20.93488312862889</v>
       </c>
       <c r="E117">
-        <v>10.45284132248816</v>
+        <v>9.9851560334364926</v>
       </c>
       <c r="F117">
-        <v>2.2845416876732552</v>
+        <v>2.1823257918620929</v>
       </c>
       <c r="G117">
-        <v>-3.9</v>
+        <v>-4</v>
       </c>
       <c r="H117">
-        <v>5.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I117" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J117" s="2">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="K117">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L117">
         <v>2023</v>
       </c>
       <c r="M117" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1.024341076751166</v>
+        <v>1.0075035585770851</v>
       </c>
       <c r="B118">
-        <v>2.4341076751166479</v>
+        <v>0.75035585770848456</v>
       </c>
       <c r="C118">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D118">
-        <v>19.980768237809059</v>
+        <v>20.93488312862889</v>
       </c>
       <c r="E118">
-        <v>8.4331466231919983</v>
+        <v>10.42868041952279</v>
       </c>
       <c r="F118">
-        <v>1.886616203385</v>
+        <v>2.2792611530957831</v>
       </c>
       <c r="G118">
-        <v>-1.4</v>
+        <v>-3.9</v>
       </c>
       <c r="H118">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="I118" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J118" s="2">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="K118">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L118">
         <v>2023</v>
       </c>
       <c r="M118" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1.0257114968427059</v>
+        <v>1.007997804758505</v>
       </c>
       <c r="B119">
-        <v>2.5711496842705679</v>
+        <v>0.79978047585049783</v>
       </c>
       <c r="C119">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D119">
-        <v>19.980768237809059</v>
+        <v>20.93488312862889</v>
       </c>
       <c r="E119">
-        <v>8.6942328056947407</v>
+        <v>10.45284132248816</v>
       </c>
       <c r="F119">
-        <v>1.94502493791773</v>
+        <v>2.2845416876732552</v>
       </c>
       <c r="G119">
-        <v>-1.4</v>
+        <v>-3.9</v>
       </c>
       <c r="H119">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="I119" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J119" s="2">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="K119">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L119">
         <v>2023</v>
       </c>
       <c r="M119" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1.0274341521624779</v>
+        <v>1.024341076751166</v>
       </c>
       <c r="B120">
-        <v>2.7434152162478349</v>
+        <v>2.4341076751166479</v>
       </c>
       <c r="C120">
         <v>29</v>
@@ -23588,39 +23753,39 @@
         <v>19.980768237809059</v>
       </c>
       <c r="E120">
-        <v>8.8600899853811086</v>
+        <v>8.4331466231919983</v>
       </c>
       <c r="F120">
-        <v>1.9821295747306971</v>
+        <v>1.886616203385</v>
       </c>
       <c r="G120">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="H120">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="I120" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J120" s="2">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="K120">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L120">
         <v>2023</v>
       </c>
       <c r="M120" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1.0307736875574081</v>
+        <v>1.0257114968427059</v>
       </c>
       <c r="B121">
-        <v>3.077368755740828</v>
+        <v>2.5711496842705679</v>
       </c>
       <c r="C121">
         <v>29</v>
@@ -23629,121 +23794,121 @@
         <v>19.980768237809059</v>
       </c>
       <c r="E121">
-        <v>8.8913866720822945</v>
+        <v>8.6942328056947407</v>
       </c>
       <c r="F121">
-        <v>1.9891310937224751</v>
+        <v>1.94502493791773</v>
       </c>
       <c r="G121">
-        <v>-1</v>
+        <v>-1.4</v>
       </c>
       <c r="H121">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="I121" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J121" s="2">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="K121">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L121">
         <v>2023</v>
       </c>
       <c r="M121" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1.030522934285991</v>
+        <v>1.0274341521624779</v>
       </c>
       <c r="B122">
-        <v>3.0522934285990511</v>
+        <v>2.7434152162478349</v>
       </c>
       <c r="C122">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D122">
-        <v>19.115832380573561</v>
+        <v>19.980768237809059</v>
       </c>
       <c r="E122">
-        <v>8.9779628919183239</v>
+        <v>8.8600899853811086</v>
       </c>
       <c r="F122">
-        <v>2.0534361302533419</v>
+        <v>1.9821295747306971</v>
       </c>
       <c r="G122">
-        <v>-1.2</v>
+        <v>-1.3</v>
       </c>
       <c r="H122">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="I122" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J122" s="2">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="K122">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L122">
         <v>2023</v>
       </c>
       <c r="M122" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1.0362213941757219</v>
+        <v>1.0307736875574081</v>
       </c>
       <c r="B123">
-        <v>3.6221394175722121</v>
+        <v>3.077368755740828</v>
       </c>
       <c r="C123">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D123">
-        <v>19.115832380573561</v>
+        <v>19.980768237809059</v>
       </c>
       <c r="E123">
-        <v>8.9900867178652906</v>
+        <v>8.8913866720822945</v>
       </c>
       <c r="F123">
-        <v>2.0562090869402998</v>
+        <v>1.9891310937224751</v>
       </c>
       <c r="G123">
-        <v>-0.6</v>
+        <v>-1</v>
       </c>
       <c r="H123">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="I123" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J123" s="2">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="K123">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L123">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M123" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1.03982142868727</v>
+        <v>1.030522934285991</v>
       </c>
       <c r="B124">
-        <v>3.9821428687270011</v>
+        <v>3.0522934285990511</v>
       </c>
       <c r="C124">
         <v>28</v>
@@ -23752,39 +23917,39 @@
         <v>19.115832380573561</v>
       </c>
       <c r="E124">
-        <v>8.9946788840389686</v>
+        <v>8.9779628919183239</v>
       </c>
       <c r="F124">
-        <v>2.0572594053756381</v>
+        <v>2.0534361302533419</v>
       </c>
       <c r="G124">
-        <v>-0.2</v>
+        <v>-1.2</v>
       </c>
       <c r="H124">
-        <v>8.1999999999999993</v>
+        <v>7.3</v>
       </c>
       <c r="I124" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J124" s="2">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L124">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M124" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1.0401978445851581</v>
+        <v>1.0362213941757219</v>
       </c>
       <c r="B125">
-        <v>4.0197844585157627</v>
+        <v>3.6221394175722121</v>
       </c>
       <c r="C125">
         <v>28</v>
@@ -23793,39 +23958,39 @@
         <v>19.115832380573561</v>
       </c>
       <c r="E125">
-        <v>8.9640688418837513</v>
+        <v>8.9900867178652906</v>
       </c>
       <c r="F125">
-        <v>2.050258288611535</v>
+        <v>2.0562090869402998</v>
       </c>
       <c r="G125">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="H125">
-        <v>8.1999999999999993</v>
+        <v>7.8</v>
       </c>
       <c r="I125" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J125" s="2">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="K125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L125">
         <v>2024</v>
       </c>
       <c r="M125" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1.0443954521737191</v>
+        <v>1.03982142868727</v>
       </c>
       <c r="B126">
-        <v>4.4395452173719319</v>
+        <v>3.9821428687270011</v>
       </c>
       <c r="C126">
         <v>28</v>
@@ -23834,39 +23999,39 @@
         <v>19.115832380573561</v>
       </c>
       <c r="E126">
-        <v>8.9378341367699115</v>
+        <v>8.9946788840389686</v>
       </c>
       <c r="F126">
-        <v>2.0442578972091829</v>
+        <v>2.0572594053756381</v>
       </c>
       <c r="G126">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="H126">
-        <v>8.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I126" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J126" s="2">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="K126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L126">
         <v>2024</v>
       </c>
       <c r="M126" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1.0487346955015411</v>
+        <v>1.0401978445851581</v>
       </c>
       <c r="B127">
-        <v>4.8734695501540637</v>
+        <v>4.0197844585157627</v>
       </c>
       <c r="C127">
         <v>28</v>
@@ -23875,39 +24040,39 @@
         <v>19.115832380573561</v>
       </c>
       <c r="E127">
-        <v>8.7935093785894285</v>
+        <v>8.9640688418837513</v>
       </c>
       <c r="F127">
-        <v>2.0112479954635809</v>
+        <v>2.050258288611535</v>
       </c>
       <c r="G127">
-        <v>0.7</v>
+        <v>-0.2</v>
       </c>
       <c r="H127">
-        <v>9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I127" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J127" s="2">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="K127">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L127">
         <v>2024</v>
       </c>
       <c r="M127" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1.0504436225967599</v>
+        <v>1.0443954521737191</v>
       </c>
       <c r="B128">
-        <v>5.0443622596760376</v>
+        <v>4.4395452173719319</v>
       </c>
       <c r="C128">
         <v>28</v>
@@ -23916,39 +24081,39 @@
         <v>19.115832380573561</v>
       </c>
       <c r="E128">
-        <v>8.626379275414136</v>
+        <v>8.9378341367699115</v>
       </c>
       <c r="F128">
-        <v>1.9730220642089491</v>
+        <v>2.0442578972091829</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H128">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
       <c r="I128" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J128" s="2">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="K128">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L128">
         <v>2024</v>
       </c>
       <c r="M128" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1.049163711236947</v>
+        <v>1.0487346955015411</v>
       </c>
       <c r="B129">
-        <v>4.9163711236947183</v>
+        <v>4.8734695501540637</v>
       </c>
       <c r="C129">
         <v>28</v>
@@ -23957,39 +24122,39 @@
         <v>19.115832380573561</v>
       </c>
       <c r="E129">
-        <v>8.5202275513698087</v>
+        <v>8.7935093785894285</v>
       </c>
       <c r="F129">
-        <v>1.948743083769241</v>
+        <v>2.0112479954635809</v>
       </c>
       <c r="G129">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H129">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="I129" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J129" s="2">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="K129">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L129">
         <v>2024</v>
       </c>
       <c r="M129" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1.0490817571221689</v>
+        <v>1.0504436225967599</v>
       </c>
       <c r="B130">
-        <v>4.9081757122169334</v>
+        <v>5.0443622596760376</v>
       </c>
       <c r="C130">
         <v>28</v>
@@ -23998,39 +24163,39 @@
         <v>19.115832380573561</v>
       </c>
       <c r="E130">
-        <v>8.4586446883490325</v>
+        <v>8.626379275414136</v>
       </c>
       <c r="F130">
-        <v>1.9346578756375461</v>
+        <v>1.9730220642089491</v>
       </c>
       <c r="G130">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H130">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="I130" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J130" s="2">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="K130">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L130">
         <v>2024</v>
       </c>
       <c r="M130" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1.049707657347035</v>
+        <v>1.049163711236947</v>
       </c>
       <c r="B131">
-        <v>4.9707657347034973</v>
+        <v>4.9163711236947183</v>
       </c>
       <c r="C131">
         <v>28</v>
@@ -24039,39 +24204,39 @@
         <v>19.115832380573561</v>
       </c>
       <c r="E131">
-        <v>8.4510791752975436</v>
+        <v>8.5202275513698087</v>
       </c>
       <c r="F131">
-        <v>1.932927494477493</v>
+        <v>1.948743083769241</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H131">
         <v>8.9</v>
       </c>
       <c r="I131" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J131" s="2">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="K131">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L131">
         <v>2024</v>
       </c>
       <c r="M131" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1.0495413705020109</v>
+        <v>1.0490817571221689</v>
       </c>
       <c r="B132">
-        <v>4.9541370502011128</v>
+        <v>4.9081757122169334</v>
       </c>
       <c r="C132">
         <v>28</v>
@@ -24080,39 +24245,39 @@
         <v>19.115832380573561</v>
       </c>
       <c r="E132">
-        <v>8.4762146436878592</v>
+        <v>8.4586446883490325</v>
       </c>
       <c r="F132">
-        <v>1.938676468890161</v>
+        <v>1.9346578756375461</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H132">
         <v>8.9</v>
       </c>
       <c r="I132" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J132" s="2">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="K132">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L132">
         <v>2024</v>
       </c>
       <c r="M132" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1.049938707404132</v>
+        <v>1.049707657347035</v>
       </c>
       <c r="B133">
-        <v>4.9938707404132421</v>
+        <v>4.9707657347034973</v>
       </c>
       <c r="C133">
         <v>28</v>
@@ -24121,39 +24286,39 @@
         <v>19.115832380573561</v>
       </c>
       <c r="E133">
-        <v>8.5214008501954499</v>
+        <v>8.4510791752975436</v>
       </c>
       <c r="F133">
-        <v>1.9490114402137</v>
+        <v>1.932927494477493</v>
       </c>
       <c r="G133">
         <v>1</v>
       </c>
       <c r="H133">
+        <v>8.9</v>
+      </c>
+      <c r="I133" t="s">
+        <v>504</v>
+      </c>
+      <c r="J133" s="2">
+        <v>45536</v>
+      </c>
+      <c r="K133">
         <v>9</v>
-      </c>
-      <c r="I133" t="s">
-        <v>505</v>
-      </c>
-      <c r="J133" s="2">
-        <v>45597</v>
-      </c>
-      <c r="K133">
-        <v>11</v>
       </c>
       <c r="L133">
         <v>2024</v>
       </c>
       <c r="M133" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1.0507794398533561</v>
+        <v>1.0495413705020109</v>
       </c>
       <c r="B134">
-        <v>5.077943985335609</v>
+        <v>4.9541370502011128</v>
       </c>
       <c r="C134">
         <v>28</v>
@@ -24162,39 +24327,39 @@
         <v>19.115832380573561</v>
       </c>
       <c r="E134">
-        <v>8.5272884004097076</v>
+        <v>8.4762146436878592</v>
       </c>
       <c r="F134">
-        <v>1.950358038375686</v>
+        <v>1.938676468890161</v>
       </c>
       <c r="G134">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="I134" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J134" s="2">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="K134">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L134">
         <v>2024</v>
       </c>
       <c r="M134" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1.052900083662393</v>
+        <v>1.049938707404132</v>
       </c>
       <c r="B135">
-        <v>5.2900083662393182</v>
+        <v>4.9938707404132421</v>
       </c>
       <c r="C135">
         <v>28</v>
@@ -24203,39 +24368,39 @@
         <v>19.115832380573561</v>
       </c>
       <c r="E135">
-        <v>8.4562235630387086</v>
+        <v>8.5214008501954499</v>
       </c>
       <c r="F135">
-        <v>1.9341041168118589</v>
+        <v>1.9490114402137</v>
       </c>
       <c r="G135">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <v>9.3000000000000007</v>
+        <v>9</v>
       </c>
       <c r="I135" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J135" s="2">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="K135">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L135">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M135" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1.054918176709073</v>
+        <v>1.0507794398533561</v>
       </c>
       <c r="B136">
-        <v>5.4918176709073174</v>
+        <v>5.077943985335609</v>
       </c>
       <c r="C136">
         <v>28</v>
@@ -24244,121 +24409,121 @@
         <v>19.115832380573561</v>
       </c>
       <c r="E136">
-        <v>8.4158643751521183</v>
+        <v>8.5272884004097076</v>
       </c>
       <c r="F136">
-        <v>1.9248731792827449</v>
+        <v>1.950358038375686</v>
       </c>
       <c r="G136">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H136">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="I136" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J136" s="2">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="K136">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L136">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M136" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1.0562252248529671</v>
+        <v>1.052900083662393</v>
       </c>
       <c r="B137">
-        <v>5.6225224852967326</v>
+        <v>5.2900083662393182</v>
       </c>
       <c r="C137">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137">
-        <v>18.529494333301809</v>
+        <v>19.115832380573561</v>
       </c>
       <c r="E137">
-        <v>8.130541975380206</v>
+        <v>8.4562235630387086</v>
       </c>
       <c r="F137">
-        <v>1.8888075604391961</v>
+        <v>1.9341041168118589</v>
       </c>
       <c r="G137">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H137">
-        <v>9.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I137" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J137" s="2">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="K137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L137">
         <v>2025</v>
       </c>
       <c r="M137" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1.056258611903089</v>
+        <v>1.054918176709073</v>
       </c>
       <c r="B138">
-        <v>5.625861190308945</v>
+        <v>5.4918176709073174</v>
       </c>
       <c r="C138">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D138">
-        <v>18.529494333301809</v>
+        <v>19.115832380573561</v>
       </c>
       <c r="E138">
-        <v>8.1072813168525517</v>
+        <v>8.4158643751521183</v>
       </c>
       <c r="F138">
-        <v>1.883403872982583</v>
+        <v>1.9248731792827449</v>
       </c>
       <c r="G138">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H138">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="I138" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J138" s="2">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="K138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L138">
         <v>2025</v>
       </c>
       <c r="M138" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1.0557291021032189</v>
+        <v>1.0562252248529671</v>
       </c>
       <c r="B139">
-        <v>5.5729102103218908</v>
+        <v>5.6225224852967326</v>
       </c>
       <c r="C139">
         <v>27</v>
@@ -24367,10 +24532,10 @@
         <v>18.529494333301809</v>
       </c>
       <c r="E139">
-        <v>8.1861358910509114</v>
+        <v>8.130541975380206</v>
       </c>
       <c r="F139">
-        <v>1.9017225922478029</v>
+        <v>1.8888075604391961</v>
       </c>
       <c r="G139">
         <v>1.7</v>
@@ -24379,27 +24544,27 @@
         <v>9.5</v>
       </c>
       <c r="I139" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J139" s="2">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="K139">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L139">
         <v>2025</v>
       </c>
       <c r="M139" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1.055317824332328</v>
+        <v>1.056258611903089</v>
       </c>
       <c r="B140">
-        <v>5.5317824332327792</v>
+        <v>5.625861190308945</v>
       </c>
       <c r="C140">
         <v>27</v>
@@ -24408,39 +24573,39 @@
         <v>18.529494333301809</v>
       </c>
       <c r="E140">
-        <v>8.2356193782576277</v>
+        <v>8.1072813168525517</v>
       </c>
       <c r="F140">
-        <v>1.9132181094022509</v>
+        <v>1.883403872982583</v>
       </c>
       <c r="G140">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H140">
         <v>9.5</v>
       </c>
       <c r="I140" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J140" s="2">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="K140">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L140">
         <v>2025</v>
       </c>
       <c r="M140" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1.0562171260140769</v>
+        <v>1.0557291021032189</v>
       </c>
       <c r="B141">
-        <v>5.621712601407669</v>
+        <v>5.5729102103218908</v>
       </c>
       <c r="C141">
         <v>27</v>
@@ -24449,39 +24614,39 @@
         <v>18.529494333301809</v>
       </c>
       <c r="E141">
-        <v>8.301435937395059</v>
+        <v>8.1861358910509114</v>
       </c>
       <c r="F141">
-        <v>1.9285079652171899</v>
+        <v>1.9017225922478029</v>
       </c>
       <c r="G141">
         <v>1.7</v>
       </c>
       <c r="H141">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="I141" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J141" s="2">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="K141">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L141">
         <v>2025</v>
       </c>
       <c r="M141" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1.0558351583267911</v>
+        <v>1.055317824332328</v>
       </c>
       <c r="B142">
-        <v>5.5835158326790868</v>
+        <v>5.5317824332327792</v>
       </c>
       <c r="C142">
         <v>27</v>
@@ -24490,39 +24655,39 @@
         <v>18.529494333301809</v>
       </c>
       <c r="E142">
-        <v>8.3454114615585588</v>
+        <v>8.2356193782576277</v>
       </c>
       <c r="F142">
-        <v>1.9387239265597189</v>
+        <v>1.9132181094022509</v>
       </c>
       <c r="G142">
         <v>1.6</v>
       </c>
       <c r="H142">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="I142" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J142" s="2">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="K142">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L142">
         <v>2025</v>
       </c>
       <c r="M142" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1.0553299450435929</v>
+        <v>1.0562171260140769</v>
       </c>
       <c r="B143">
-        <v>5.5329945043593121</v>
+        <v>5.621712601407669</v>
       </c>
       <c r="C143">
         <v>27</v>
@@ -24531,113 +24696,236 @@
         <v>18.529494333301809</v>
       </c>
       <c r="E143">
-        <v>8.4357280447285881</v>
+        <v>8.301435937395059</v>
       </c>
       <c r="F143">
-        <v>1.95970538703814</v>
+        <v>1.9285079652171899</v>
       </c>
       <c r="G143">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H143">
         <v>9.6</v>
       </c>
       <c r="I143" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J143" s="2">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="K143">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L143">
         <v>2025</v>
       </c>
       <c r="M143" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1.0537179403362831</v>
+        <v>1.0558351583267911</v>
       </c>
       <c r="B144">
-        <v>5.3717940336283299</v>
+        <v>5.5835158326790868</v>
       </c>
       <c r="C144">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D144">
-        <v>14.264404329923959</v>
+        <v>18.529494333301809</v>
       </c>
       <c r="E144">
-        <v>8.1755582062632914</v>
+        <v>8.3454114615585588</v>
       </c>
       <c r="F144">
-        <v>2.1646644984973351</v>
+        <v>1.9387239265597189</v>
       </c>
       <c r="G144">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H144">
-        <v>9.8000000000000007</v>
+        <v>9.6</v>
       </c>
       <c r="I144" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J144" s="2">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="K144">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L144">
         <v>2025</v>
       </c>
       <c r="M144" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1.0525045781797799</v>
+        <v>1.0553299450435929</v>
       </c>
       <c r="B145">
-        <v>5.2504578179779724</v>
+        <v>5.5329945043593121</v>
       </c>
       <c r="C145">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D145">
-        <v>14.264404329923959</v>
+        <v>18.529494333301809</v>
       </c>
       <c r="E145">
-        <v>8.2699452226860437</v>
+        <v>8.4357280447285881</v>
       </c>
       <c r="F145">
-        <v>2.189655602274553</v>
+        <v>1.95970538703814</v>
       </c>
       <c r="G145">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H145">
-        <v>9.8000000000000007</v>
+        <v>9.6</v>
       </c>
       <c r="I145" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J145" s="2">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="K145">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L145">
         <v>2025</v>
       </c>
       <c r="M145" t="s">
-        <v>482</v>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1.0537179403362831</v>
+      </c>
+      <c r="B146">
+        <v>5.3717940336283299</v>
+      </c>
+      <c r="C146">
+        <v>25</v>
+      </c>
+      <c r="D146">
+        <v>14.264404329923959</v>
+      </c>
+      <c r="E146">
+        <v>8.1755582062632914</v>
+      </c>
+      <c r="F146">
+        <v>2.1646644984973351</v>
+      </c>
+      <c r="G146">
+        <v>0.9</v>
+      </c>
+      <c r="H146">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I146" t="s">
+        <v>517</v>
+      </c>
+      <c r="J146" s="2">
+        <v>45931</v>
+      </c>
+      <c r="K146">
+        <v>10</v>
+      </c>
+      <c r="L146">
+        <v>2025</v>
+      </c>
+      <c r="M146" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1.0525045781797799</v>
+      </c>
+      <c r="B147">
+        <v>5.2504578179779724</v>
+      </c>
+      <c r="C147">
+        <v>25</v>
+      </c>
+      <c r="D147">
+        <v>14.264404329923959</v>
+      </c>
+      <c r="E147">
+        <v>8.2699452226860437</v>
+      </c>
+      <c r="F147">
+        <v>2.189655602274553</v>
+      </c>
+      <c r="G147">
+        <v>0.7</v>
+      </c>
+      <c r="H147">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I147" t="s">
+        <v>518</v>
+      </c>
+      <c r="J147" s="2">
+        <v>45962</v>
+      </c>
+      <c r="K147">
+        <v>11</v>
+      </c>
+      <c r="L147">
+        <v>2025</v>
+      </c>
+      <c r="M147" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1.052936843883328</v>
+      </c>
+      <c r="B148">
+        <v>5.2936843883327764</v>
+      </c>
+      <c r="C148">
+        <v>25</v>
+      </c>
+      <c r="D148">
+        <v>14.264404329923959</v>
+      </c>
+      <c r="E148">
+        <v>8.3834858988564651</v>
+      </c>
+      <c r="F148">
+        <v>2.219718071972733</v>
+      </c>
+      <c r="G148">
+        <v>0.7</v>
+      </c>
+      <c r="H148">
+        <v>9.9</v>
+      </c>
+      <c r="I148" t="s">
+        <v>519</v>
+      </c>
+      <c r="J148" s="2">
+        <v>45992</v>
+      </c>
+      <c r="K148">
+        <v>12</v>
+      </c>
+      <c r="L148">
+        <v>2025</v>
+      </c>
+      <c r="M148" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>
